--- a/Euclid_work/Quant_Share/dev_files/jointquant_factor.xlsx
+++ b/Euclid_work/Quant_Share/dev_files/jointquant_factor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chengmeng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuankangrui\Quant_Share_Local\Euclid_work\Quant_Share\dev_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="7010" tabRatio="841" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="7005" tabRatio="841" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="风格因子" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$250</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5628,27 +5628,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R253"/>
+  <dimension ref="A1:R251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219:XFD219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="6" width="8.58203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="2" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="15" width="8.58203125" customWidth="1"/>
-    <col min="16" max="16" width="35.4140625" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" customWidth="1"/>
+    <col min="14" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="35.375" customWidth="1"/>
+    <col min="17" max="17" width="29.375" customWidth="1"/>
     <col min="18" max="18" width="18.5" customWidth="1"/>
-    <col min="19" max="19" width="28.08203125" customWidth="1"/>
+    <col min="19" max="19" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="42">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="57">
       <c r="A1" s="18" t="s">
         <v>720</v>
       </c>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="Q1" s="18"/>
     </row>
-    <row r="2" spans="1:18" ht="28">
+    <row r="2" spans="1:18" ht="28.5">
       <c r="A2" s="20" t="s">
         <v>967</v>
       </c>
@@ -5731,7 +5731,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18" ht="28">
+    <row r="3" spans="1:18" ht="28.5">
       <c r="A3" s="20" t="s">
         <v>127</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="28.5">
       <c r="A4" s="20" t="s">
         <v>130</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" ht="28">
+    <row r="5" spans="1:18" ht="28.5">
       <c r="A5" s="20" t="s">
         <v>133</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="28">
+    <row r="8" spans="1:18" ht="28.5">
       <c r="A8" s="20" t="s">
         <v>145</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" ht="28">
+    <row r="9" spans="1:18" ht="28.5">
       <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" ht="42">
+    <row r="10" spans="1:18" ht="42.75">
       <c r="A10" s="20" t="s">
         <v>151</v>
       </c>
@@ -6037,7 +6037,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="28">
+    <row r="12" spans="1:18" ht="28.5">
       <c r="A12" s="20" t="s">
         <v>160</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="28">
+    <row r="13" spans="1:18" ht="28.5">
       <c r="A13" s="20" t="s">
         <v>163</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
     </row>
-    <row r="16" spans="1:18" ht="42">
+    <row r="16" spans="1:18" ht="42.75">
       <c r="A16" s="20" t="s">
         <v>1095</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" ht="28">
+    <row r="17" spans="1:18" ht="28.5">
       <c r="A17" s="20" t="s">
         <v>187</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" ht="28">
+    <row r="18" spans="1:18" ht="28.5">
       <c r="A18" s="20" t="s">
         <v>190</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="28.5">
       <c r="A19" s="20" t="s">
         <v>193</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" ht="28">
+    <row r="20" spans="1:18" ht="28.5">
       <c r="A20" s="20" t="s">
         <v>198</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" ht="28">
+    <row r="21" spans="1:18" ht="28.5">
       <c r="A21" s="20" t="s">
         <v>1094</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:18" ht="28">
+    <row r="22" spans="1:18" ht="28.5">
       <c r="A22" s="20" t="s">
         <v>1093</v>
       </c>
@@ -6411,7 +6411,7 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" ht="42">
+    <row r="23" spans="1:18" ht="42.75">
       <c r="A23" s="20" t="s">
         <v>1092</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" ht="28">
+    <row r="24" spans="1:18" ht="42.75">
       <c r="A24" s="20" t="s">
         <v>679</v>
       </c>
@@ -6481,7 +6481,7 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" spans="1:18" ht="28">
+    <row r="25" spans="1:18" ht="42.75">
       <c r="A25" s="20" t="s">
         <v>680</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" ht="42">
+    <row r="26" spans="1:18" ht="42.75">
       <c r="A26" s="20" t="s">
         <v>683</v>
       </c>
@@ -6551,7 +6551,7 @@
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" ht="42">
+    <row r="27" spans="1:18" ht="42.75">
       <c r="A27" s="20" t="s">
         <v>684</v>
       </c>
@@ -6587,7 +6587,7 @@
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
     </row>
-    <row r="28" spans="1:18" ht="42">
+    <row r="28" spans="1:18" ht="42.75">
       <c r="A28" s="20" t="s">
         <v>685</v>
       </c>
@@ -6621,9 +6621,9 @@
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" ht="28">
+    <row r="29" spans="1:18" ht="28.5">
       <c r="A29" s="20" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B29" s="20">
         <v>2</v>
@@ -6637,12 +6637,10 @@
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H29" s="20"/>
-      <c r="I29" s="20" t="s">
-        <v>786</v>
-      </c>
+      <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -6652,14 +6650,14 @@
         <v>1074</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>787</v>
+        <v>897</v>
       </c>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" ht="28">
+    <row r="30" spans="1:18" ht="85.5">
       <c r="A30" s="20" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B30" s="20">
         <v>2</v>
@@ -6673,7 +6671,7 @@
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -6686,14 +6684,14 @@
         <v>1074</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>897</v>
+        <v>791</v>
       </c>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" spans="1:18" ht="84">
+    <row r="31" spans="1:18" ht="28.5">
       <c r="A31" s="20" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B31" s="20">
         <v>2</v>
@@ -6707,10 +6705,12 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="20" t="s">
+        <v>793</v>
+      </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
@@ -6720,14 +6720,14 @@
         <v>1074</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="28.5">
       <c r="A32" s="20" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B32" s="20">
         <v>2</v>
@@ -6740,12 +6740,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="20" t="s">
-        <v>794</v>
-      </c>
+      <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -6756,14 +6754,14 @@
         <v>1074</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" ht="28">
+    <row r="33" spans="1:18" ht="57">
       <c r="A33" s="20" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B33" s="20">
         <v>2</v>
@@ -6776,11 +6774,11 @@
         <v>3</v>
       </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="20" t="s">
+        <v>798</v>
+      </c>
       <c r="H33" s="20"/>
-      <c r="I33" s="20" t="s">
-        <v>796</v>
-      </c>
+      <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -6790,14 +6788,14 @@
         <v>1074</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="1:18" ht="56">
+    <row r="34" spans="1:18" ht="28.5">
       <c r="A34" s="20" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B34" s="20">
         <v>2</v>
@@ -6811,7 +6809,7 @@
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
@@ -6824,14 +6822,14 @@
         <v>1074</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" ht="28">
+    <row r="35" spans="1:18" ht="28.5">
       <c r="A35" s="20" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B35" s="20">
         <v>2</v>
@@ -6845,9 +6843,11 @@
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="H35" s="20"/>
+        <v>803</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>760</v>
+      </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -6858,14 +6858,14 @@
         <v>1074</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" ht="28">
+    <row r="36" spans="1:18" ht="28.5">
       <c r="A36" s="20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B36" s="20">
         <v>2</v>
@@ -6879,11 +6879,9 @@
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>760</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
@@ -6894,14 +6892,14 @@
         <v>1074</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" spans="1:18" ht="28">
+    <row r="37" spans="1:18">
       <c r="A37" s="20" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B37" s="20">
         <v>2</v>
@@ -6915,10 +6913,12 @@
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="20" t="s">
+        <v>771</v>
+      </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -6928,14 +6928,14 @@
         <v>1074</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="20" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B38" s="20">
         <v>2</v>
@@ -6949,12 +6949,10 @@
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="H38" s="20"/>
-      <c r="I38" s="20" t="s">
-        <v>771</v>
-      </c>
+      <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
@@ -6963,15 +6961,15 @@
       <c r="O38" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="P38" s="20" t="s">
-        <v>814</v>
+      <c r="P38" s="22" t="s">
+        <v>912</v>
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" ht="42.75">
       <c r="A39" s="20" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B39" s="20">
         <v>2</v>
@@ -6985,7 +6983,7 @@
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -6997,15 +6995,15 @@
       <c r="O39" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="P39" s="22" t="s">
-        <v>912</v>
+      <c r="P39" s="20" t="s">
+        <v>898</v>
       </c>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" spans="1:18" ht="42">
+    <row r="40" spans="1:18" ht="28.5">
       <c r="A40" s="20" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B40" s="20">
         <v>2</v>
@@ -7019,10 +7017,12 @@
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="20" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="I40" s="20" t="s">
+        <v>809</v>
+      </c>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -7032,14 +7032,14 @@
         <v>1074</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>898</v>
+        <v>812</v>
       </c>
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18" ht="28">
+    <row r="41" spans="1:18" ht="28.5">
       <c r="A41" s="20" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B41" s="20">
         <v>2</v>
@@ -7052,12 +7052,10 @@
         <v>3</v>
       </c>
       <c r="F41" s="20"/>
-      <c r="G41" s="20" t="s">
-        <v>802</v>
-      </c>
+      <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
@@ -7068,14 +7066,14 @@
         <v>1074</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" ht="28">
+    <row r="42" spans="1:18" ht="28.5">
       <c r="A42" s="20" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B42" s="20">
         <v>2</v>
@@ -7088,11 +7086,11 @@
         <v>3</v>
       </c>
       <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="20" t="s">
+        <v>813</v>
+      </c>
       <c r="H42" s="20"/>
-      <c r="I42" s="20" t="s">
-        <v>810</v>
-      </c>
+      <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -7102,14 +7100,14 @@
         <v>1074</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
     </row>
-    <row r="43" spans="1:18" ht="28">
+    <row r="43" spans="1:18" ht="28.5">
       <c r="A43" s="20" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B43" s="20">
         <v>2</v>
@@ -7123,10 +7121,12 @@
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="20" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="20" t="s">
+        <v>762</v>
+      </c>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
@@ -7136,14 +7136,14 @@
         <v>1074</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" ht="57">
       <c r="A44" s="20" t="s">
-        <v>701</v>
+        <v>817</v>
       </c>
       <c r="B44" s="20">
         <v>2</v>
@@ -7156,12 +7156,10 @@
         <v>3</v>
       </c>
       <c r="F44" s="20"/>
-      <c r="G44" s="20" t="s">
-        <v>816</v>
-      </c>
+      <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -7171,15 +7169,15 @@
       <c r="O44" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="P44" s="20" t="s">
-        <v>815</v>
+      <c r="P44" s="22" t="s">
+        <v>930</v>
       </c>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="1:18" ht="56">
+    <row r="45" spans="1:18" ht="28.5">
       <c r="A45" s="20" t="s">
-        <v>817</v>
+        <v>702</v>
       </c>
       <c r="B45" s="20">
         <v>2</v>
@@ -7192,11 +7190,11 @@
         <v>3</v>
       </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="G45" s="20" t="s">
+        <v>820</v>
+      </c>
       <c r="H45" s="20"/>
-      <c r="I45" s="20" t="s">
-        <v>750</v>
-      </c>
+      <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
@@ -7205,15 +7203,15 @@
       <c r="O45" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="P45" s="22" t="s">
-        <v>930</v>
+      <c r="P45" s="20" t="s">
+        <v>819</v>
       </c>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
     </row>
-    <row r="46" spans="1:18" ht="28">
+    <row r="46" spans="1:18" ht="28.5">
       <c r="A46" s="20" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B46" s="20">
         <v>2</v>
@@ -7227,9 +7225,11 @@
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="H46" s="20"/>
+        <v>823</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>760</v>
+      </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
@@ -7240,14 +7240,14 @@
         <v>1074</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="1:18" ht="28">
+    <row r="47" spans="1:18" ht="28.5">
       <c r="A47" s="20" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B47" s="20">
         <v>2</v>
@@ -7260,13 +7260,13 @@
         <v>3</v>
       </c>
       <c r="F47" s="20"/>
-      <c r="G47" s="20" t="s">
-        <v>823</v>
-      </c>
+      <c r="G47" s="20"/>
       <c r="H47" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="20" t="s">
+        <v>771</v>
+      </c>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -7276,14 +7276,14 @@
         <v>1074</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:18" ht="28">
+    <row r="48" spans="1:18" ht="42.75">
       <c r="A48" s="20" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B48" s="20">
         <v>2</v>
@@ -7297,11 +7297,9 @@
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="20" t="s">
-        <v>760</v>
-      </c>
+      <c r="H48" s="20"/>
       <c r="I48" s="20" t="s">
-        <v>771</v>
+        <v>825</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
@@ -7312,14 +7310,14 @@
         <v>1074</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:18" ht="42">
+    <row r="49" spans="1:18" ht="42.75">
       <c r="A49" s="20" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B49" s="20">
         <v>2</v>
@@ -7335,7 +7333,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
@@ -7346,14 +7344,14 @@
         <v>1074</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
     </row>
-    <row r="50" spans="1:18" ht="42">
+    <row r="50" spans="1:18" ht="42.75">
       <c r="A50" s="20" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B50" s="20">
         <v>2</v>
@@ -7369,7 +7367,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
@@ -7380,14 +7378,14 @@
         <v>1074</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
     </row>
-    <row r="51" spans="1:18" ht="28">
+    <row r="51" spans="1:18" ht="28.5">
       <c r="A51" s="20" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B51" s="20">
         <v>2</v>
@@ -7400,11 +7398,11 @@
         <v>3</v>
       </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="G51" s="20" t="s">
+        <v>833</v>
+      </c>
       <c r="H51" s="20"/>
-      <c r="I51" s="20" t="s">
-        <v>831</v>
-      </c>
+      <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
@@ -7414,14 +7412,14 @@
         <v>1074</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
     </row>
-    <row r="52" spans="1:18" ht="28">
+    <row r="52" spans="1:18" ht="28.5">
       <c r="A52" s="20" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B52" s="20">
         <v>2</v>
@@ -7434,11 +7432,13 @@
         <v>3</v>
       </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>762</v>
+      </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
@@ -7448,14 +7448,14 @@
         <v>1074</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
     </row>
-    <row r="53" spans="1:18" ht="28">
+    <row r="53" spans="1:18" ht="42.75">
       <c r="A53" s="20" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B53" s="20">
         <v>2</v>
@@ -7468,13 +7468,13 @@
         <v>3</v>
       </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="20" t="s">
+        <v>837</v>
+      </c>
       <c r="H53" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>762</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -7484,14 +7484,14 @@
         <v>1074</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
     </row>
-    <row r="54" spans="1:18" ht="42">
+    <row r="54" spans="1:18" ht="28.5">
       <c r="A54" s="20" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B54" s="20">
         <v>2</v>
@@ -7505,10 +7505,10 @@
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>836</v>
+        <v>760</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -7520,14 +7520,14 @@
         <v>1074</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
     </row>
-    <row r="55" spans="1:18" ht="28">
+    <row r="55" spans="1:18" ht="42.75">
       <c r="A55" s="20" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B55" s="20">
         <v>2</v>
@@ -7541,10 +7541,10 @@
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20" t="s">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>760</v>
+        <v>843</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -7556,14 +7556,14 @@
         <v>1074</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
     </row>
-    <row r="56" spans="1:18" ht="42">
+    <row r="56" spans="1:18" ht="28.5">
       <c r="A56" s="20" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B56" s="20">
         <v>2</v>
@@ -7576,13 +7576,11 @@
         <v>3</v>
       </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="I56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20" t="s">
+        <v>851</v>
+      </c>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
@@ -7592,14 +7590,14 @@
         <v>1074</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
     </row>
-    <row r="57" spans="1:18" ht="28">
+    <row r="57" spans="1:18" ht="42.75">
       <c r="A57" s="20" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B57" s="20">
         <v>2</v>
@@ -7612,10 +7610,12 @@
         <v>3</v>
       </c>
       <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="G57" s="20" t="s">
+        <v>855</v>
+      </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
@@ -7626,14 +7626,14 @@
         <v>1074</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
     </row>
-    <row r="58" spans="1:18" ht="42">
+    <row r="58" spans="1:18">
       <c r="A58" s="20" t="s">
-        <v>714</v>
+        <v>859</v>
       </c>
       <c r="B58" s="20">
         <v>2</v>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="20" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20" t="s">
-        <v>852</v>
+        <v>771</v>
       </c>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
@@ -7662,14 +7662,14 @@
         <v>1074</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" ht="28.5">
       <c r="A59" s="20" t="s">
-        <v>859</v>
+        <v>715</v>
       </c>
       <c r="B59" s="20">
         <v>2</v>
@@ -7682,12 +7682,10 @@
         <v>3</v>
       </c>
       <c r="F59" s="20"/>
-      <c r="G59" s="20" t="s">
-        <v>858</v>
-      </c>
+      <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20" t="s">
-        <v>771</v>
+        <v>851</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
@@ -7698,14 +7696,14 @@
         <v>1074</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="Q59" s="21"/>
       <c r="R59" s="21"/>
     </row>
-    <row r="60" spans="1:18" ht="28">
+    <row r="60" spans="1:18" ht="28.5">
       <c r="A60" s="20" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B60" s="20">
         <v>2</v>
@@ -7718,11 +7716,11 @@
         <v>3</v>
       </c>
       <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="20" t="s">
+        <v>863</v>
+      </c>
       <c r="H60" s="20"/>
-      <c r="I60" s="20" t="s">
-        <v>851</v>
-      </c>
+      <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -7731,15 +7729,15 @@
       <c r="O60" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="P60" s="20" t="s">
-        <v>862</v>
+      <c r="P60" s="22" t="s">
+        <v>962</v>
       </c>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
     </row>
-    <row r="61" spans="1:18" ht="28">
+    <row r="61" spans="1:18">
       <c r="A61" s="20" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B61" s="20">
         <v>2</v>
@@ -7752,11 +7750,11 @@
         <v>3</v>
       </c>
       <c r="F61" s="20"/>
-      <c r="G61" s="20" t="s">
-        <v>863</v>
-      </c>
+      <c r="G61" s="20"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="20" t="s">
+        <v>731</v>
+      </c>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -7765,15 +7763,15 @@
       <c r="O61" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="P61" s="22" t="s">
-        <v>962</v>
+      <c r="P61" s="20" t="s">
+        <v>966</v>
       </c>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="20" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B62" s="20">
         <v>2</v>
@@ -7786,10 +7784,12 @@
         <v>3</v>
       </c>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="20" t="s">
+        <v>854</v>
+      </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20" t="s">
-        <v>731</v>
+        <v>865</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
@@ -7800,14 +7800,14 @@
         <v>1074</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>966</v>
+        <v>866</v>
       </c>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" ht="28.5">
       <c r="A63" s="20" t="s">
-        <v>718</v>
+        <v>899</v>
       </c>
       <c r="B63" s="20">
         <v>2</v>
@@ -7820,12 +7820,10 @@
         <v>3</v>
       </c>
       <c r="F63" s="20"/>
-      <c r="G63" s="20" t="s">
-        <v>854</v>
-      </c>
+      <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
@@ -7836,14 +7834,14 @@
         <v>1074</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
     </row>
-    <row r="64" spans="1:18" ht="28">
+    <row r="64" spans="1:18" ht="28.5">
       <c r="A64" s="20" t="s">
-        <v>899</v>
+        <v>719</v>
       </c>
       <c r="B64" s="20">
         <v>2</v>
@@ -7859,7 +7857,7 @@
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
@@ -7870,14 +7868,14 @@
         <v>1074</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="Q64" s="21"/>
       <c r="R64" s="21"/>
     </row>
-    <row r="65" spans="1:18" ht="28">
+    <row r="65" spans="1:18" ht="28.5">
       <c r="A65" s="20" t="s">
-        <v>719</v>
+        <v>347</v>
       </c>
       <c r="B65" s="20">
         <v>2</v>
@@ -7893,7 +7891,7 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20" t="s">
-        <v>870</v>
+        <v>780</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
@@ -7903,15 +7901,15 @@
       <c r="O65" s="20" t="s">
         <v>1074</v>
       </c>
-      <c r="P65" s="20" t="s">
-        <v>871</v>
+      <c r="P65" s="22" t="s">
+        <v>872</v>
       </c>
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
     </row>
-    <row r="66" spans="1:18" ht="28">
+    <row r="66" spans="1:18" ht="28.5">
       <c r="A66" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B66" s="20">
         <v>2</v>
@@ -7925,10 +7923,10 @@
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20" t="s">
-        <v>780</v>
-      </c>
+      <c r="H66" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -7938,14 +7936,14 @@
         <v>1074</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
     </row>
-    <row r="67" spans="1:18" ht="28">
+    <row r="67" spans="1:18" ht="28.5">
       <c r="A67" s="20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B67" s="20">
         <v>2</v>
@@ -7958,10 +7956,10 @@
         <v>3</v>
       </c>
       <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20" t="s">
-        <v>758</v>
-      </c>
+      <c r="G67" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
@@ -7972,14 +7970,14 @@
         <v>1074</v>
       </c>
       <c r="P67" s="22" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
     </row>
-    <row r="68" spans="1:18" ht="28">
+    <row r="68" spans="1:18" ht="28.5">
       <c r="A68" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B68" s="20">
         <v>2</v>
@@ -7993,7 +7991,7 @@
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="20" t="s">
-        <v>733</v>
+        <v>874</v>
       </c>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
@@ -8006,14 +8004,14 @@
         <v>1074</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
     </row>
-    <row r="69" spans="1:18" ht="28">
+    <row r="69" spans="1:18" ht="28.5">
       <c r="A69" s="20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B69" s="20">
         <v>2</v>
@@ -8026,11 +8024,11 @@
         <v>3</v>
       </c>
       <c r="F69" s="20"/>
-      <c r="G69" s="20" t="s">
-        <v>874</v>
-      </c>
+      <c r="G69" s="20"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="I69" s="20" t="s">
+        <v>771</v>
+      </c>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -8040,14 +8038,14 @@
         <v>1074</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Q69" s="21"/>
       <c r="R69" s="21"/>
     </row>
-    <row r="70" spans="1:18" ht="28">
+    <row r="70" spans="1:18" ht="42.75">
       <c r="A70" s="20" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B70" s="20">
         <v>2</v>
@@ -8060,11 +8058,11 @@
         <v>3</v>
       </c>
       <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="G70" s="20" t="s">
+        <v>913</v>
+      </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="20" t="s">
-        <v>771</v>
-      </c>
+      <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
@@ -8074,14 +8072,14 @@
         <v>1074</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
     </row>
-    <row r="71" spans="1:18" ht="42">
+    <row r="71" spans="1:18" ht="28.5">
       <c r="A71" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B71" s="20">
         <v>2</v>
@@ -8094,11 +8092,11 @@
         <v>3</v>
       </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="20" t="s">
-        <v>913</v>
-      </c>
+      <c r="G71" s="20"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
+      <c r="I71" s="20" t="s">
+        <v>921</v>
+      </c>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20"/>
@@ -8108,14 +8106,14 @@
         <v>1074</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
     </row>
-    <row r="72" spans="1:18" ht="28">
+    <row r="72" spans="1:18" ht="28.5">
       <c r="A72" s="20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B72" s="20">
         <v>2</v>
@@ -8128,11 +8126,11 @@
         <v>3</v>
       </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="20" t="s">
+        <v>735</v>
+      </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="20" t="s">
-        <v>921</v>
-      </c>
+      <c r="I72" s="20"/>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
@@ -8142,14 +8140,14 @@
         <v>1074</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="Q72" s="21"/>
       <c r="R72" s="21"/>
     </row>
-    <row r="73" spans="1:18" ht="28">
+    <row r="73" spans="1:18" ht="28.5">
       <c r="A73" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B73" s="20">
         <v>2</v>
@@ -8162,11 +8160,11 @@
         <v>3</v>
       </c>
       <c r="F73" s="20"/>
-      <c r="G73" s="20" t="s">
-        <v>735</v>
-      </c>
+      <c r="G73" s="20"/>
       <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="I73" s="20" t="s">
+        <v>762</v>
+      </c>
       <c r="J73" s="20"/>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
@@ -8176,14 +8174,14 @@
         <v>1074</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="Q73" s="21"/>
       <c r="R73" s="21"/>
     </row>
-    <row r="74" spans="1:18" ht="28">
+    <row r="74" spans="1:18" ht="28.5">
       <c r="A74" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B74" s="20">
         <v>2</v>
@@ -8197,10 +8195,10 @@
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20" t="s">
-        <v>762</v>
-      </c>
+      <c r="H74" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="I74" s="20"/>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
@@ -8210,14 +8208,14 @@
         <v>1074</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
     </row>
-    <row r="75" spans="1:18" ht="28">
+    <row r="75" spans="1:18" ht="28.5">
       <c r="A75" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B75" s="20">
         <v>2</v>
@@ -8231,10 +8229,10 @@
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="I75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20" t="s">
+        <v>879</v>
+      </c>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
@@ -8244,14 +8242,14 @@
         <v>1074</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
     </row>
-    <row r="76" spans="1:18" ht="28">
+    <row r="76" spans="1:18" ht="28.5">
       <c r="A76" s="20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B76" s="20">
         <v>2</v>
@@ -8267,7 +8265,7 @@
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20" t="s">
-        <v>879</v>
+        <v>755</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
@@ -8278,14 +8276,14 @@
         <v>1074</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
     </row>
-    <row r="77" spans="1:18" ht="28">
+    <row r="77" spans="1:18" ht="28.5">
       <c r="A77" s="20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B77" s="20">
         <v>2</v>
@@ -8299,10 +8297,10 @@
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20" t="s">
-        <v>755</v>
-      </c>
+      <c r="H77" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="I77" s="20"/>
       <c r="J77" s="20"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
@@ -8312,14 +8310,14 @@
         <v>1074</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>881</v>
+        <v>917</v>
       </c>
       <c r="Q77" s="21"/>
       <c r="R77" s="21"/>
     </row>
-    <row r="78" spans="1:18" ht="28">
+    <row r="78" spans="1:18" ht="28.5">
       <c r="A78" s="20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B78" s="20">
         <v>2</v>
@@ -8333,10 +8331,10 @@
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
-      <c r="H78" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="I78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20" t="s">
+        <v>796</v>
+      </c>
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
@@ -8346,14 +8344,14 @@
         <v>1074</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>917</v>
+        <v>883</v>
       </c>
       <c r="Q78" s="21"/>
       <c r="R78" s="21"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" ht="28.5">
       <c r="A79" s="20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B79" s="20">
         <v>2</v>
@@ -8366,11 +8364,11 @@
         <v>3</v>
       </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="G79" s="20" t="s">
+        <v>885</v>
+      </c>
       <c r="H79" s="20"/>
-      <c r="I79" s="20" t="s">
-        <v>796</v>
-      </c>
+      <c r="I79" s="20"/>
       <c r="J79" s="20"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
@@ -8380,14 +8378,14 @@
         <v>1074</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="Q79" s="21"/>
       <c r="R79" s="21"/>
     </row>
-    <row r="80" spans="1:18" ht="28">
+    <row r="80" spans="1:18" ht="42.75">
       <c r="A80" s="20" t="s">
-        <v>377</v>
+        <v>215</v>
       </c>
       <c r="B80" s="20">
         <v>2</v>
@@ -8400,28 +8398,30 @@
         <v>3</v>
       </c>
       <c r="F80" s="20"/>
-      <c r="G80" s="20" t="s">
-        <v>885</v>
-      </c>
+      <c r="G80" s="20"/>
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
+      <c r="M80" s="20" t="s">
+        <v>918</v>
+      </c>
       <c r="N80" s="20"/>
       <c r="O80" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P80" s="22" t="s">
-        <v>884</v>
-      </c>
-      <c r="Q80" s="21"/>
+        <v>1075</v>
+      </c>
+      <c r="P80" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q80" s="20" t="s">
+        <v>886</v>
+      </c>
       <c r="R80" s="21"/>
     </row>
-    <row r="81" spans="1:18" ht="42">
+    <row r="81" spans="1:18">
       <c r="A81" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B81" s="20">
         <v>2</v>
@@ -8450,14 +8450,12 @@
       <c r="P81" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="Q81" s="20" t="s">
-        <v>886</v>
-      </c>
+      <c r="Q81" s="21"/>
       <c r="R81" s="21"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B82" s="20">
         <v>2</v>
@@ -8491,7 +8489,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B83" s="20">
         <v>2</v>
@@ -8525,7 +8523,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B84" s="20">
         <v>2</v>
@@ -8559,7 +8557,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B85" s="20">
         <v>2</v>
@@ -8593,7 +8591,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B86" s="20">
         <v>2</v>
@@ -8627,7 +8625,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B87" s="20">
         <v>2</v>
@@ -8661,7 +8659,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B88" s="20">
         <v>2</v>
@@ -8695,7 +8693,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B89" s="20">
         <v>2</v>
@@ -8729,7 +8727,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B90" s="20">
         <v>2</v>
@@ -8763,7 +8761,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B91" s="20">
         <v>2</v>
@@ -8797,7 +8795,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B92" s="20">
         <v>2</v>
@@ -8831,7 +8829,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B93" s="20">
         <v>2</v>
@@ -8865,7 +8863,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B94" s="20">
         <v>2</v>
@@ -8899,7 +8897,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B95" s="20">
         <v>2</v>
@@ -8933,7 +8931,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B96" s="20">
         <v>2</v>
@@ -8967,7 +8965,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B97" s="20">
         <v>2</v>
@@ -9001,7 +8999,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B98" s="20">
         <v>2</v>
@@ -9035,7 +9033,7 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B99" s="20">
         <v>2</v>
@@ -9069,7 +9067,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B100" s="20">
         <v>2</v>
@@ -9103,7 +9101,7 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B101" s="20">
         <v>2</v>
@@ -9137,7 +9135,7 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B102" s="20">
         <v>2</v>
@@ -9171,7 +9169,7 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B103" s="20">
         <v>2</v>
@@ -9205,7 +9203,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B104" s="20">
         <v>2</v>
@@ -9239,7 +9237,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B105" s="20">
         <v>2</v>
@@ -9273,7 +9271,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B106" s="20">
         <v>2</v>
@@ -9307,7 +9305,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B107" s="20">
         <v>2</v>
@@ -9341,7 +9339,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B108" s="20">
         <v>2</v>
@@ -9375,7 +9373,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B109" s="20">
         <v>2</v>
@@ -9409,7 +9407,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B110" s="20">
         <v>2</v>
@@ -9443,7 +9441,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B111" s="20">
         <v>2</v>
@@ -9477,7 +9475,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B112" s="20">
         <v>2</v>
@@ -9511,7 +9509,7 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B113" s="20">
         <v>2</v>
@@ -9545,7 +9543,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B114" s="20">
         <v>2</v>
@@ -9577,9 +9575,9 @@
       <c r="Q114" s="21"/>
       <c r="R114" s="21"/>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" ht="28.5">
       <c r="A115" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B115" s="20">
         <v>2</v>
@@ -9594,26 +9592,26 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
+      <c r="I115" s="20" t="s">
+        <v>933</v>
+      </c>
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
-      <c r="M115" s="20" t="s">
-        <v>918</v>
-      </c>
+      <c r="M115" s="20"/>
       <c r="N115" s="20"/>
       <c r="O115" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P115" s="20" t="s">
-        <v>548</v>
+        <v>864</v>
       </c>
       <c r="Q115" s="21"/>
       <c r="R115" s="21"/>
     </row>
-    <row r="116" spans="1:18" ht="28">
+    <row r="116" spans="1:18">
       <c r="A116" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B116" s="20">
         <v>2</v>
@@ -9626,11 +9624,11 @@
         <v>3</v>
       </c>
       <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
+      <c r="G116" s="20" t="s">
+        <v>935</v>
+      </c>
       <c r="H116" s="20"/>
-      <c r="I116" s="20" t="s">
-        <v>933</v>
-      </c>
+      <c r="I116" s="20"/>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
@@ -9640,14 +9638,14 @@
         <v>1074</v>
       </c>
       <c r="P116" s="20" t="s">
-        <v>864</v>
+        <v>934</v>
       </c>
       <c r="Q116" s="21"/>
       <c r="R116" s="21"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" ht="28.5">
       <c r="A117" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B117" s="20">
         <v>2</v>
@@ -9660,10 +9658,10 @@
         <v>3</v>
       </c>
       <c r="F117" s="20"/>
-      <c r="G117" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="H117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20" t="s">
+        <v>936</v>
+      </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
@@ -9674,14 +9672,14 @@
         <v>1074</v>
       </c>
       <c r="P117" s="20" t="s">
-        <v>934</v>
+        <v>878</v>
       </c>
       <c r="Q117" s="21"/>
       <c r="R117" s="21"/>
     </row>
-    <row r="118" spans="1:18" ht="28">
+    <row r="118" spans="1:18">
       <c r="A118" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B118" s="20">
         <v>2</v>
@@ -9695,10 +9693,10 @@
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
-      <c r="H118" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="I118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20" t="s">
+        <v>937</v>
+      </c>
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
@@ -9708,14 +9706,14 @@
         <v>1074</v>
       </c>
       <c r="P118" s="20" t="s">
-        <v>878</v>
+        <v>939</v>
       </c>
       <c r="Q118" s="21"/>
       <c r="R118" s="21"/>
     </row>
-    <row r="119" spans="1:18">
-      <c r="A119" s="20" t="s">
-        <v>308</v>
+    <row r="119" spans="1:18" ht="28.5">
+      <c r="A119" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="B119" s="20">
         <v>2</v>
@@ -9728,28 +9726,26 @@
         <v>3</v>
       </c>
       <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20" t="s">
-        <v>937</v>
-      </c>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="20"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
       <c r="O119" s="20" t="s">
         <v>1074</v>
       </c>
       <c r="P119" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-    </row>
-    <row r="120" spans="1:18" ht="28">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B120" s="20">
         <v>2</v>
@@ -9762,11 +9758,11 @@
         <v>3</v>
       </c>
       <c r="F120" s="20"/>
-      <c r="G120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>942</v>
+      </c>
       <c r="H120" s="1"/>
-      <c r="I120" s="1" t="s">
-        <v>944</v>
-      </c>
+      <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -9776,12 +9772,12 @@
         <v>1074</v>
       </c>
       <c r="P120" s="20" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B121" s="20">
         <v>2</v>
@@ -9794,26 +9790,26 @@
         <v>3</v>
       </c>
       <c r="F121" s="20"/>
-      <c r="G121" s="1" t="s">
-        <v>942</v>
-      </c>
+      <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
+      <c r="M121" s="1" t="s">
+        <v>918</v>
+      </c>
       <c r="N121" s="1"/>
       <c r="O121" s="20" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>941</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B122" s="20">
         <v>2</v>
@@ -9845,7 +9841,7 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B123" s="20">
         <v>2</v>
@@ -9877,7 +9873,7 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B124" s="20">
         <v>2</v>
@@ -9909,7 +9905,7 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B125" s="20">
         <v>2</v>
@@ -9941,7 +9937,7 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B126" s="20">
         <v>2</v>
@@ -9973,7 +9969,7 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B127" s="20">
         <v>2</v>
@@ -10005,7 +10001,7 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B128" s="20">
         <v>2</v>
@@ -10037,7 +10033,7 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B129" s="20">
         <v>2</v>
@@ -10069,7 +10065,7 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B130" s="20">
         <v>2</v>
@@ -10101,7 +10097,7 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B131" s="20">
         <v>2</v>
@@ -10133,7 +10129,7 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B132" s="20">
         <v>2</v>
@@ -10165,7 +10161,7 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>345</v>
+        <v>490</v>
       </c>
       <c r="B133" s="20">
         <v>2</v>
@@ -10197,7 +10193,7 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B134" s="20">
         <v>2</v>
@@ -10229,7 +10225,7 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B135" s="20">
         <v>2</v>
@@ -10261,7 +10257,7 @@
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B136" s="20">
         <v>2</v>
@@ -10293,7 +10289,7 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B137" s="20">
         <v>2</v>
@@ -10325,7 +10321,7 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
-        <v>498</v>
+        <v>1071</v>
       </c>
       <c r="B138" s="20">
         <v>2</v>
@@ -10357,7 +10353,7 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B139" s="20">
         <v>2</v>
@@ -10389,7 +10385,7 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
-        <v>1072</v>
+        <v>504</v>
       </c>
       <c r="B140" s="20">
         <v>2</v>
@@ -10421,7 +10417,7 @@
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B141" s="20">
         <v>2</v>
@@ -10453,7 +10449,7 @@
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B142" s="20">
         <v>2</v>
@@ -10485,7 +10481,7 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B143" s="20">
         <v>2</v>
@@ -10517,7 +10513,7 @@
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B144" s="20">
         <v>2</v>
@@ -10549,7 +10545,7 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B145" s="20">
         <v>2</v>
@@ -10581,7 +10577,7 @@
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B146" s="20">
         <v>2</v>
@@ -10613,7 +10609,7 @@
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B147" s="20">
         <v>2</v>
@@ -10645,18 +10641,12 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B148" s="20">
-        <v>2</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B148" s="20"/>
       <c r="C148" s="20"/>
-      <c r="D148" s="20">
-        <v>1</v>
-      </c>
-      <c r="E148" s="20">
-        <v>3</v>
-      </c>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
       <c r="F148" s="20"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -10677,12 +10667,18 @@
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B149" s="20"/>
+        <v>382</v>
+      </c>
+      <c r="B149" s="20">
+        <v>2</v>
+      </c>
       <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
+      <c r="D149" s="20">
+        <v>1</v>
+      </c>
+      <c r="E149" s="20">
+        <v>3</v>
+      </c>
       <c r="F149" s="20"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -10703,7 +10699,7 @@
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B150" s="20">
         <v>2</v>
@@ -10735,7 +10731,7 @@
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B151" s="20">
         <v>2</v>
@@ -10767,7 +10763,7 @@
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B152" s="20">
         <v>2</v>
@@ -10799,7 +10795,7 @@
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B153" s="20">
         <v>2</v>
@@ -10831,7 +10827,7 @@
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B154" s="20">
         <v>2</v>
@@ -10863,7 +10859,7 @@
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B155" s="20">
         <v>2</v>
@@ -10895,7 +10891,7 @@
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B156" s="20">
         <v>2</v>
@@ -10927,7 +10923,7 @@
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B157" s="20">
         <v>2</v>
@@ -10959,7 +10955,7 @@
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B158" s="20">
         <v>2</v>
@@ -10991,7 +10987,7 @@
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B159" s="20">
         <v>2</v>
@@ -11023,7 +11019,7 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B160" s="20">
         <v>2</v>
@@ -11055,7 +11051,7 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="1" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B161" s="20">
         <v>2</v>
@@ -11087,7 +11083,7 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B162" s="20">
         <v>2</v>
@@ -11119,7 +11115,7 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B163" s="20">
         <v>2</v>
@@ -11151,7 +11147,7 @@
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B164" s="20">
         <v>2</v>
@@ -11183,7 +11179,7 @@
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B165" s="20">
         <v>2</v>
@@ -11215,7 +11211,7 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B166" s="20">
         <v>2</v>
@@ -11247,7 +11243,7 @@
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B167" s="20">
         <v>2</v>
@@ -11279,7 +11275,7 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B168" s="20">
         <v>2</v>
@@ -11311,7 +11307,7 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B169" s="20">
         <v>2</v>
@@ -11343,7 +11339,7 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B170" s="20">
         <v>2</v>
@@ -11375,7 +11371,7 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B171" s="20">
         <v>2</v>
@@ -11407,7 +11403,7 @@
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B172" s="20">
         <v>2</v>
@@ -11439,7 +11435,7 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B173" s="20">
         <v>2</v>
@@ -11471,7 +11467,7 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B174" s="20">
         <v>2</v>
@@ -11503,7 +11499,7 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B175" s="20">
         <v>2</v>
@@ -11535,7 +11531,7 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B176" s="20">
         <v>2</v>
@@ -11567,7 +11563,7 @@
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B177" s="20">
         <v>2</v>
@@ -11597,9 +11593,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
-      <c r="A178" s="1" t="s">
-        <v>487</v>
+    <row r="178" spans="1:17" s="21" customFormat="1" ht="42.75">
+      <c r="A178" s="20" t="s">
+        <v>992</v>
       </c>
       <c r="B178" s="20">
         <v>2</v>
@@ -11612,26 +11608,28 @@
         <v>3</v>
       </c>
       <c r="F178" s="20"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="N178" s="1"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
       <c r="O178" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P178" s="20" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" s="21" customFormat="1" ht="28">
+        <v>988</v>
+      </c>
+      <c r="Q178" s="20" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A179" s="20" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B179" s="20">
         <v>2</v>
@@ -11657,15 +11655,15 @@
         <v>1074</v>
       </c>
       <c r="P179" s="20" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="Q179" s="20" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" s="21" customFormat="1" ht="28">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A180" s="20" t="s">
-        <v>994</v>
+        <v>528</v>
       </c>
       <c r="B180" s="20">
         <v>2</v>
@@ -11691,15 +11689,15 @@
         <v>1074</v>
       </c>
       <c r="P180" s="20" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="Q180" s="20" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="181" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="181" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A181" s="20" t="s">
-        <v>528</v>
+        <v>996</v>
       </c>
       <c r="B181" s="20">
         <v>2</v>
@@ -11731,9 +11729,9 @@
         <v>993</v>
       </c>
     </row>
-    <row r="182" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="182" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A182" s="20" t="s">
-        <v>996</v>
+        <v>1080</v>
       </c>
       <c r="B182" s="20">
         <v>2</v>
@@ -11765,9 +11763,9 @@
         <v>993</v>
       </c>
     </row>
-    <row r="183" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="183" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A183" s="20" t="s">
-        <v>1080</v>
+        <v>677</v>
       </c>
       <c r="B183" s="20">
         <v>2</v>
@@ -11782,10 +11780,10 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
       <c r="H183" s="20"/>
-      <c r="I183" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="J183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="20" t="s">
+        <v>997</v>
+      </c>
       <c r="K183" s="20"/>
       <c r="L183" s="20"/>
       <c r="M183" s="20"/>
@@ -11793,15 +11791,13 @@
         <v>1074</v>
       </c>
       <c r="P183" s="20" t="s">
-        <v>990</v>
-      </c>
-      <c r="Q183" s="20" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" s="21" customFormat="1" ht="28">
+        <v>549</v>
+      </c>
+      <c r="Q183" s="20"/>
+    </row>
+    <row r="184" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A184" s="20" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B184" s="20">
         <v>2</v>
@@ -11818,7 +11814,7 @@
       <c r="H184" s="20"/>
       <c r="I184" s="20"/>
       <c r="J184" s="20" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="K184" s="20"/>
       <c r="L184" s="20"/>
@@ -11827,13 +11823,13 @@
         <v>1074</v>
       </c>
       <c r="P184" s="20" t="s">
-        <v>549</v>
+        <v>998</v>
       </c>
       <c r="Q184" s="20"/>
     </row>
-    <row r="185" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="185" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A185" s="20" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B185" s="20">
         <v>2</v>
@@ -11850,7 +11846,7 @@
       <c r="H185" s="20"/>
       <c r="I185" s="20"/>
       <c r="J185" s="20" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="K185" s="20"/>
       <c r="L185" s="20"/>
@@ -11859,13 +11855,13 @@
         <v>1074</v>
       </c>
       <c r="P185" s="20" t="s">
-        <v>998</v>
+        <v>552</v>
       </c>
       <c r="Q185" s="20"/>
     </row>
-    <row r="186" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="186" spans="1:17" s="21" customFormat="1" ht="57">
       <c r="A186" s="20" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B186" s="20">
         <v>2</v>
@@ -11882,7 +11878,7 @@
       <c r="H186" s="20"/>
       <c r="I186" s="20"/>
       <c r="J186" s="20" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="K186" s="20"/>
       <c r="L186" s="20"/>
@@ -11891,13 +11887,13 @@
         <v>1074</v>
       </c>
       <c r="P186" s="20" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q186" s="20"/>
     </row>
-    <row r="187" spans="1:17" s="21" customFormat="1" ht="56">
-      <c r="A187" s="20" t="s">
-        <v>682</v>
+    <row r="187" spans="1:17" s="23" customFormat="1">
+      <c r="A187" s="22" t="s">
+        <v>1084</v>
       </c>
       <c r="B187" s="20">
         <v>2</v>
@@ -11910,26 +11906,26 @@
         <v>3</v>
       </c>
       <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
-      <c r="J187" s="20" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="22"/>
+      <c r="J187" s="22"/>
+      <c r="K187" s="22" t="s">
+        <v>972</v>
+      </c>
+      <c r="L187" s="22"/>
+      <c r="M187" s="22"/>
       <c r="O187" s="20" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="P187" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q187" s="20"/>
+        <v>973</v>
+      </c>
+      <c r="Q187" s="22"/>
     </row>
     <row r="188" spans="1:17" s="23" customFormat="1">
       <c r="A188" s="22" t="s">
-        <v>1084</v>
+        <v>676</v>
       </c>
       <c r="B188" s="20">
         <v>2</v>
@@ -11947,21 +11943,21 @@
       <c r="I188" s="22"/>
       <c r="J188" s="22"/>
       <c r="K188" s="22" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="L188" s="22"/>
       <c r="M188" s="22"/>
       <c r="O188" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P188" s="20" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="Q188" s="22"/>
     </row>
-    <row r="189" spans="1:17" s="23" customFormat="1">
+    <row r="189" spans="1:17" s="23" customFormat="1" ht="28.5">
       <c r="A189" s="22" t="s">
-        <v>676</v>
+        <v>977</v>
       </c>
       <c r="B189" s="20">
         <v>2</v>
@@ -11977,23 +11973,23 @@
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
       <c r="I189" s="22"/>
-      <c r="J189" s="22"/>
-      <c r="K189" s="22" t="s">
-        <v>974</v>
-      </c>
+      <c r="J189" s="22" t="s">
+        <v>978</v>
+      </c>
+      <c r="K189" s="22"/>
       <c r="L189" s="22"/>
       <c r="M189" s="22"/>
       <c r="O189" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P189" s="20" t="s">
-        <v>975</v>
+        <v>546</v>
       </c>
       <c r="Q189" s="22"/>
     </row>
-    <row r="190" spans="1:17" s="23" customFormat="1" ht="28">
+    <row r="190" spans="1:17" s="23" customFormat="1" ht="28.5">
       <c r="A190" s="22" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B190" s="20">
         <v>2</v>
@@ -12007,10 +12003,12 @@
       </c>
       <c r="F190" s="20"/>
       <c r="G190" s="22"/>
-      <c r="H190" s="22"/>
+      <c r="H190" s="22" t="s">
+        <v>1034</v>
+      </c>
       <c r="I190" s="22"/>
       <c r="J190" s="22" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="K190" s="22"/>
       <c r="L190" s="22"/>
@@ -12019,13 +12017,13 @@
         <v>1074</v>
       </c>
       <c r="P190" s="20" t="s">
-        <v>546</v>
+        <v>970</v>
       </c>
       <c r="Q190" s="22"/>
     </row>
-    <row r="191" spans="1:17" s="23" customFormat="1" ht="28">
+    <row r="191" spans="1:17" s="23" customFormat="1" ht="28.5">
       <c r="A191" s="22" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="B191" s="20">
         <v>2</v>
@@ -12039,12 +12037,12 @@
       </c>
       <c r="F191" s="20"/>
       <c r="G191" s="22"/>
-      <c r="H191" s="22" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I191" s="22"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="22" t="s">
+        <v>755</v>
+      </c>
       <c r="J191" s="22" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="K191" s="22"/>
       <c r="L191" s="22"/>
@@ -12053,13 +12051,13 @@
         <v>1074</v>
       </c>
       <c r="P191" s="20" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="Q191" s="22"/>
     </row>
-    <row r="192" spans="1:17" s="23" customFormat="1" ht="28">
+    <row r="192" spans="1:17" s="23" customFormat="1" ht="28.5">
       <c r="A192" s="22" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B192" s="20">
         <v>2</v>
@@ -12073,12 +12071,12 @@
       </c>
       <c r="F192" s="20"/>
       <c r="G192" s="22"/>
-      <c r="H192" s="22"/>
-      <c r="I192" s="22" t="s">
-        <v>755</v>
-      </c>
+      <c r="H192" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="I192" s="22"/>
       <c r="J192" s="22" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="K192" s="22"/>
       <c r="L192" s="22"/>
@@ -12087,13 +12085,13 @@
         <v>1074</v>
       </c>
       <c r="P192" s="20" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="Q192" s="22"/>
     </row>
-    <row r="193" spans="1:17" s="23" customFormat="1" ht="28">
-      <c r="A193" s="22" t="s">
-        <v>982</v>
+    <row r="193" spans="1:17" s="21" customFormat="1" ht="28.5">
+      <c r="A193" s="20" t="s">
+        <v>532</v>
       </c>
       <c r="B193" s="20">
         <v>2</v>
@@ -12106,28 +12104,28 @@
         <v>3</v>
       </c>
       <c r="F193" s="20"/>
-      <c r="G193" s="22"/>
-      <c r="H193" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="I193" s="22"/>
-      <c r="J193" s="22" t="s">
-        <v>983</v>
-      </c>
-      <c r="K193" s="22"/>
-      <c r="L193" s="22"/>
-      <c r="M193" s="22"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K193" s="20"/>
+      <c r="L193" s="20"/>
+      <c r="M193" s="20"/>
       <c r="O193" s="20" t="s">
         <v>1074</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>984</v>
-      </c>
-      <c r="Q193" s="22"/>
-    </row>
-    <row r="194" spans="1:17" s="21" customFormat="1" ht="28">
-      <c r="A194" s="20" t="s">
-        <v>532</v>
+        <v>1002</v>
+      </c>
+      <c r="Q193" s="20"/>
+    </row>
+    <row r="194" spans="1:17" s="21" customFormat="1" ht="42.75">
+      <c r="A194" s="26" t="s">
+        <v>522</v>
       </c>
       <c r="B194" s="20">
         <v>2</v>
@@ -12140,28 +12138,29 @@
         <v>3</v>
       </c>
       <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
+      <c r="G194" s="20" t="s">
+        <v>769</v>
+      </c>
       <c r="H194" s="20" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="I194" s="20"/>
-      <c r="J194" s="20" t="s">
-        <v>1003</v>
-      </c>
+      <c r="J194" s="20"/>
       <c r="K194" s="20"/>
       <c r="L194" s="20"/>
-      <c r="M194" s="20"/>
+      <c r="M194" s="20" t="s">
+        <v>909</v>
+      </c>
       <c r="O194" s="20" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="P194" s="20" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Q194" s="20"/>
-    </row>
-    <row r="195" spans="1:17" s="21" customFormat="1" ht="42">
-      <c r="A195" s="26" t="s">
-        <v>522</v>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" s="21" customFormat="1" ht="28.5">
+      <c r="A195" s="20" t="s">
+        <v>525</v>
       </c>
       <c r="B195" s="20">
         <v>2</v>
@@ -12175,28 +12174,26 @@
       </c>
       <c r="F195" s="20"/>
       <c r="G195" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="H195" s="20" t="s">
-        <v>768</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="H195" s="20"/>
       <c r="I195" s="20"/>
       <c r="J195" s="20"/>
       <c r="K195" s="20"/>
       <c r="L195" s="20"/>
       <c r="M195" s="20" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="O195" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="P195" s="20" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" s="21" customFormat="1" ht="28">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A196" s="20" t="s">
-        <v>525</v>
+        <v>1011</v>
       </c>
       <c r="B196" s="20">
         <v>2</v>
@@ -12209,27 +12206,25 @@
         <v>3</v>
       </c>
       <c r="F196" s="20"/>
-      <c r="G196" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="H196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20" t="s">
+        <v>1013</v>
+      </c>
       <c r="I196" s="20"/>
       <c r="J196" s="20"/>
       <c r="K196" s="20"/>
       <c r="L196" s="20"/>
-      <c r="M196" s="20" t="s">
-        <v>905</v>
-      </c>
+      <c r="M196" s="20"/>
       <c r="O196" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P196" s="20" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" s="21" customFormat="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A197" s="20" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B197" s="20">
         <v>2</v>
@@ -12243,59 +12238,55 @@
       </c>
       <c r="F197" s="20"/>
       <c r="G197" s="20"/>
-      <c r="H197" s="20" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20" t="s">
+        <v>1006</v>
+      </c>
       <c r="J197" s="20"/>
-      <c r="K197" s="20"/>
+      <c r="K197" s="20" t="s">
+        <v>1017</v>
+      </c>
       <c r="L197" s="20"/>
-      <c r="M197" s="20"/>
+      <c r="M197" s="20" t="s">
+        <v>1015</v>
+      </c>
       <c r="O197" s="20" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="P197" s="20" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17" s="21" customFormat="1" ht="28">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" s="21" customFormat="1" ht="57">
       <c r="A198" s="20" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B198" s="20">
-        <v>2</v>
-      </c>
+        <v>1018</v>
+      </c>
+      <c r="B198" s="20"/>
       <c r="C198" s="20"/>
-      <c r="D198" s="20">
-        <v>1</v>
-      </c>
-      <c r="E198" s="20">
-        <v>3</v>
-      </c>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="20"/>
+      <c r="G198" s="20" t="s">
+        <v>1097</v>
+      </c>
       <c r="H198" s="20"/>
-      <c r="I198" s="20" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J198" s="20"/>
-      <c r="K198" s="20" t="s">
-        <v>1017</v>
-      </c>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K198" s="20"/>
       <c r="L198" s="20"/>
       <c r="M198" s="20" t="s">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="O198" s="20" t="s">
-        <v>1076</v>
-      </c>
-      <c r="P198" s="20" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17" s="21" customFormat="1" ht="56">
+        <v>1075</v>
+      </c>
+      <c r="P198" s="20"/>
+    </row>
+    <row r="199" spans="1:17" s="21" customFormat="1">
       <c r="A199" s="20" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
@@ -12303,26 +12294,26 @@
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
       <c r="G199" s="20" t="s">
-        <v>1097</v>
+        <v>1035</v>
       </c>
       <c r="H199" s="20"/>
       <c r="I199" s="20"/>
-      <c r="J199" s="20" t="s">
-        <v>1026</v>
-      </c>
+      <c r="J199" s="20"/>
       <c r="K199" s="20"/>
       <c r="L199" s="20"/>
       <c r="M199" s="20" t="s">
-        <v>1043</v>
+        <v>954</v>
       </c>
       <c r="O199" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P199" s="20"/>
+      <c r="P199" s="20" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="200" spans="1:17" s="21" customFormat="1">
-      <c r="A200" s="20" t="s">
-        <v>1019</v>
+      <c r="A200" s="22" t="s">
+        <v>572</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="20"/>
@@ -12330,7 +12321,7 @@
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
       <c r="G200" s="20" t="s">
-        <v>1035</v>
+        <v>1096</v>
       </c>
       <c r="H200" s="20"/>
       <c r="I200" s="20"/>
@@ -12338,43 +12329,43 @@
       <c r="K200" s="20"/>
       <c r="L200" s="20"/>
       <c r="M200" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="O200" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P200" s="20" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17" s="21" customFormat="1">
-      <c r="A201" s="22" t="s">
-        <v>572</v>
+      <c r="P200" s="20"/>
+    </row>
+    <row r="201" spans="1:17" s="21" customFormat="1" ht="28.5">
+      <c r="A201" s="20" t="s">
+        <v>1021</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="20"/>
       <c r="D201" s="20"/>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
-      <c r="G201" s="20" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20" t="s">
+        <v>760</v>
+      </c>
       <c r="I201" s="20"/>
       <c r="J201" s="20"/>
       <c r="K201" s="20"/>
       <c r="L201" s="20"/>
-      <c r="M201" s="20" t="s">
-        <v>952</v>
+      <c r="M201" s="24" t="s">
+        <v>1020</v>
       </c>
       <c r="O201" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P201" s="20"/>
-    </row>
-    <row r="202" spans="1:17" s="21" customFormat="1" ht="28">
+      <c r="P201" s="20" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" s="21" customFormat="1">
       <c r="A202" s="20" t="s">
-        <v>1021</v>
+        <v>945</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
@@ -12382,26 +12373,24 @@
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
-      <c r="H202" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="I202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20" t="s">
+        <v>1022</v>
+      </c>
       <c r="J202" s="20"/>
       <c r="K202" s="20"/>
       <c r="L202" s="20"/>
-      <c r="M202" s="24" t="s">
-        <v>1020</v>
-      </c>
+      <c r="M202" s="20"/>
       <c r="O202" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="P202" s="20" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="203" spans="1:17" s="21" customFormat="1">
       <c r="A203" s="20" t="s">
-        <v>945</v>
+        <v>581</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="20"/>
@@ -12409,78 +12398,76 @@
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
       <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="20" t="s">
-        <v>1022</v>
-      </c>
+      <c r="H203" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="I203" s="20"/>
       <c r="J203" s="20"/>
       <c r="K203" s="20"/>
       <c r="L203" s="20"/>
-      <c r="M203" s="20"/>
+      <c r="M203" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="O203" s="20" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="P203" s="20" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="204" spans="1:17" s="21" customFormat="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A204" s="20" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="20"/>
-      <c r="H204" s="20" t="s">
-        <v>960</v>
-      </c>
+      <c r="G204" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H204" s="20"/>
       <c r="I204" s="20"/>
       <c r="J204" s="20"/>
       <c r="K204" s="20"/>
       <c r="L204" s="20"/>
       <c r="M204" s="20" t="s">
-        <v>952</v>
+        <v>1023</v>
       </c>
       <c r="O204" s="20" t="s">
         <v>1075</v>
       </c>
       <c r="P204" s="20" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="205" spans="1:17" s="21" customFormat="1" ht="42">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" s="21" customFormat="1">
       <c r="A205" s="20" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="20" t="s">
-        <v>1025</v>
-      </c>
+      <c r="G205" s="20"/>
       <c r="H205" s="20"/>
       <c r="I205" s="20"/>
       <c r="J205" s="20"/>
       <c r="K205" s="20"/>
       <c r="L205" s="20"/>
       <c r="M205" s="20" t="s">
-        <v>1023</v>
+        <v>952</v>
       </c>
       <c r="O205" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P205" s="20" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="206" spans="1:17" s="21" customFormat="1">
+      <c r="P205" s="20"/>
+    </row>
+    <row r="206" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A206" s="20" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
@@ -12501,9 +12488,9 @@
       </c>
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="207" spans="1:17" s="21" customFormat="1">
       <c r="A207" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
@@ -12523,10 +12510,11 @@
         <v>1075</v>
       </c>
       <c r="P207" s="20"/>
+      <c r="Q207" s="20"/>
     </row>
     <row r="208" spans="1:17" s="21" customFormat="1">
       <c r="A208" s="20" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
@@ -12548,98 +12536,101 @@
       <c r="P208" s="20"/>
       <c r="Q208" s="20"/>
     </row>
-    <row r="209" spans="1:17" s="21" customFormat="1">
+    <row r="209" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A209" s="20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="20"/>
+      <c r="G209" s="20" t="s">
+        <v>1068</v>
+      </c>
       <c r="H209" s="20"/>
       <c r="I209" s="20"/>
-      <c r="J209" s="20"/>
+      <c r="J209" s="20" t="s">
+        <v>1026</v>
+      </c>
       <c r="K209" s="20"/>
       <c r="L209" s="20"/>
-      <c r="M209" s="20" t="s">
-        <v>952</v>
-      </c>
+      <c r="M209" s="20"/>
+      <c r="N209" s="20"/>
       <c r="O209" s="20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P209" s="20"/>
+        <v>1074</v>
+      </c>
+      <c r="P209" s="20" t="s">
+        <v>1027</v>
+      </c>
       <c r="Q209" s="20"/>
     </row>
-    <row r="210" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="210" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A210" s="20" t="s">
-        <v>589</v>
+        <v>946</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="20" t="s">
-        <v>1068</v>
-      </c>
+      <c r="G210" s="20"/>
       <c r="H210" s="20"/>
       <c r="I210" s="20"/>
-      <c r="J210" s="20" t="s">
-        <v>1026</v>
-      </c>
+      <c r="J210" s="20"/>
       <c r="K210" s="20"/>
       <c r="L210" s="20"/>
-      <c r="M210" s="20"/>
+      <c r="M210" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="N210" s="20"/>
       <c r="O210" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P210" s="20" t="s">
-        <v>1027</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="P210" s="20"/>
       <c r="Q210" s="20"/>
     </row>
-    <row r="211" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="211" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A211" s="20" t="s">
-        <v>946</v>
+        <v>601</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="20"/>
+      <c r="G211" s="20" t="s">
+        <v>964</v>
+      </c>
       <c r="H211" s="20"/>
       <c r="I211" s="20"/>
       <c r="J211" s="20"/>
       <c r="K211" s="20"/>
       <c r="L211" s="20"/>
-      <c r="M211" s="20" t="s">
-        <v>952</v>
-      </c>
+      <c r="M211" s="20"/>
       <c r="N211" s="20"/>
       <c r="O211" s="20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P211" s="20"/>
+        <v>1074</v>
+      </c>
+      <c r="P211" s="20" t="s">
+        <v>963</v>
+      </c>
       <c r="Q211" s="20"/>
     </row>
-    <row r="212" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="212" spans="1:17" s="21" customFormat="1">
       <c r="A212" s="20" t="s">
-        <v>601</v>
+        <v>947</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="20" t="s">
-        <v>964</v>
-      </c>
+      <c r="G212" s="20"/>
       <c r="H212" s="20"/>
-      <c r="I212" s="20"/>
+      <c r="I212" s="20" t="s">
+        <v>1044</v>
+      </c>
       <c r="J212" s="20"/>
       <c r="K212" s="20"/>
       <c r="L212" s="20"/>
@@ -12649,40 +12640,46 @@
         <v>1074</v>
       </c>
       <c r="P212" s="20" t="s">
-        <v>963</v>
+        <v>1045</v>
       </c>
       <c r="Q212" s="20"/>
     </row>
-    <row r="213" spans="1:17" s="21" customFormat="1">
-      <c r="A213" s="20" t="s">
-        <v>947</v>
-      </c>
-      <c r="B213" s="20"/>
+    <row r="213" spans="1:17" s="23" customFormat="1">
+      <c r="A213" s="22" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B213" s="20">
+        <v>2</v>
+      </c>
       <c r="C213" s="20"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="20"/>
+      <c r="D213" s="20">
+        <v>1</v>
+      </c>
+      <c r="E213" s="20">
+        <v>3</v>
+      </c>
       <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
-      <c r="H213" s="20"/>
-      <c r="I213" s="20" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J213" s="20"/>
-      <c r="K213" s="20"/>
-      <c r="L213" s="20"/>
-      <c r="M213" s="20"/>
-      <c r="N213" s="20"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
+      <c r="I213" s="22"/>
+      <c r="J213" s="22"/>
+      <c r="K213" s="22"/>
+      <c r="L213" s="22"/>
+      <c r="M213" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="N213" s="22"/>
       <c r="O213" s="20" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="P213" s="20" t="s">
-        <v>1045</v>
-      </c>
-      <c r="Q213" s="20"/>
-    </row>
-    <row r="214" spans="1:17" s="23" customFormat="1">
+        <v>548</v>
+      </c>
+      <c r="Q213" s="22"/>
+    </row>
+    <row r="214" spans="1:17" s="23" customFormat="1" ht="114">
       <c r="A214" s="22" t="s">
-        <v>1046</v>
+        <v>902</v>
       </c>
       <c r="B214" s="20">
         <v>2</v>
@@ -12695,27 +12692,27 @@
         <v>3</v>
       </c>
       <c r="F214" s="20"/>
-      <c r="G214" s="22"/>
+      <c r="G214" s="22" t="s">
+        <v>901</v>
+      </c>
       <c r="H214" s="22"/>
       <c r="I214" s="22"/>
       <c r="J214" s="22"/>
       <c r="K214" s="22"/>
       <c r="L214" s="22"/>
-      <c r="M214" s="22" t="s">
-        <v>918</v>
-      </c>
+      <c r="M214" s="22"/>
       <c r="N214" s="22"/>
       <c r="O214" s="20" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="P214" s="20" t="s">
-        <v>548</v>
+        <v>951</v>
       </c>
       <c r="Q214" s="22"/>
     </row>
-    <row r="215" spans="1:17" s="23" customFormat="1" ht="112">
-      <c r="A215" s="22" t="s">
-        <v>902</v>
+    <row r="215" spans="1:17" s="21" customFormat="1" ht="99.75">
+      <c r="A215" s="20" t="s">
+        <v>1030</v>
       </c>
       <c r="B215" s="20">
         <v>2</v>
@@ -12728,27 +12725,27 @@
         <v>3</v>
       </c>
       <c r="F215" s="20"/>
-      <c r="G215" s="22" t="s">
-        <v>901</v>
-      </c>
-      <c r="H215" s="22"/>
-      <c r="I215" s="22"/>
-      <c r="J215" s="22"/>
-      <c r="K215" s="22"/>
-      <c r="L215" s="22"/>
-      <c r="M215" s="22"/>
-      <c r="N215" s="22"/>
+      <c r="G215" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="20"/>
+      <c r="K215" s="20"/>
+      <c r="L215" s="20"/>
+      <c r="M215" s="20"/>
+      <c r="N215" s="20"/>
       <c r="O215" s="20" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="P215" s="20" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q215" s="22"/>
-    </row>
-    <row r="216" spans="1:17" s="21" customFormat="1" ht="98">
+        <v>746</v>
+      </c>
+      <c r="Q215" s="20"/>
+    </row>
+    <row r="216" spans="1:17" s="21" customFormat="1">
       <c r="A216" s="20" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B216" s="20">
         <v>2</v>
@@ -12761,11 +12758,13 @@
         <v>3</v>
       </c>
       <c r="F216" s="20"/>
-      <c r="G216" s="20" t="s">
-        <v>900</v>
-      </c>
-      <c r="H216" s="20"/>
-      <c r="I216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="I216" s="20" t="s">
+        <v>771</v>
+      </c>
       <c r="J216" s="20"/>
       <c r="K216" s="20"/>
       <c r="L216" s="20"/>
@@ -12775,13 +12774,13 @@
         <v>1074</v>
       </c>
       <c r="P216" s="20" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="Q216" s="20"/>
     </row>
     <row r="217" spans="1:17" s="21" customFormat="1">
       <c r="A217" s="20" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="B217" s="20">
         <v>2</v>
@@ -12796,11 +12795,9 @@
       <c r="F217" s="20"/>
       <c r="G217" s="20"/>
       <c r="H217" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="I217" s="20" t="s">
-        <v>771</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="I217" s="20"/>
       <c r="J217" s="20"/>
       <c r="K217" s="20"/>
       <c r="L217" s="20"/>
@@ -12810,23 +12807,31 @@
         <v>1074</v>
       </c>
       <c r="P217" s="20" t="s">
-        <v>772</v>
+        <v>938</v>
       </c>
       <c r="Q217" s="20"/>
     </row>
     <row r="218" spans="1:17" s="21" customFormat="1">
       <c r="A218" s="20" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B218" s="20"/>
+        <v>530</v>
+      </c>
+      <c r="B218" s="20">
+        <v>2</v>
+      </c>
       <c r="C218" s="20"/>
-      <c r="D218" s="20"/>
-      <c r="E218" s="20"/>
+      <c r="D218" s="20">
+        <v>1</v>
+      </c>
+      <c r="E218" s="20">
+        <v>3</v>
+      </c>
       <c r="F218" s="20"/>
       <c r="G218" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="H218" s="20"/>
+        <v>929</v>
+      </c>
+      <c r="H218" s="20" t="s">
+        <v>747</v>
+      </c>
       <c r="I218" s="20"/>
       <c r="J218" s="20"/>
       <c r="K218" s="20"/>
@@ -12837,46 +12842,13 @@
         <v>1074</v>
       </c>
       <c r="P218" s="20" t="s">
-        <v>1349</v>
+        <v>928</v>
       </c>
       <c r="Q218" s="20"/>
     </row>
-    <row r="219" spans="1:17" s="21" customFormat="1">
-      <c r="A219" s="20" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B219" s="20">
-        <v>2</v>
-      </c>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20">
-        <v>1</v>
-      </c>
-      <c r="E219" s="20">
-        <v>3</v>
-      </c>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="I219" s="20"/>
-      <c r="J219" s="20"/>
-      <c r="K219" s="20"/>
-      <c r="L219" s="20"/>
-      <c r="M219" s="20"/>
-      <c r="N219" s="20"/>
-      <c r="O219" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P219" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q219" s="20"/>
-    </row>
-    <row r="220" spans="1:17" s="21" customFormat="1">
+    <row r="220" spans="1:17" s="21" customFormat="1" ht="71.25">
       <c r="A220" s="20" t="s">
-        <v>530</v>
+        <v>1033</v>
       </c>
       <c r="B220" s="20">
         <v>2</v>
@@ -12889,13 +12861,11 @@
         <v>3</v>
       </c>
       <c r="F220" s="20"/>
-      <c r="G220" s="20" t="s">
-        <v>929</v>
-      </c>
-      <c r="H220" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="I220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20" t="s">
+        <v>861</v>
+      </c>
       <c r="J220" s="20"/>
       <c r="K220" s="20"/>
       <c r="L220" s="20"/>
@@ -12905,13 +12875,13 @@
         <v>1074</v>
       </c>
       <c r="P220" s="20" t="s">
-        <v>928</v>
+        <v>860</v>
       </c>
       <c r="Q220" s="20"/>
     </row>
-    <row r="221" spans="1:17" s="21" customFormat="1">
+    <row r="221" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A221" s="20" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B221" s="20">
         <v>2</v>
@@ -12925,12 +12895,12 @@
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="H221" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="I221" s="20"/>
+        <v>849</v>
+      </c>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20" t="s">
+        <v>850</v>
+      </c>
       <c r="J221" s="20"/>
       <c r="K221" s="20"/>
       <c r="L221" s="20"/>
@@ -12940,13 +12910,13 @@
         <v>1074</v>
       </c>
       <c r="P221" s="20" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="Q221" s="20"/>
     </row>
-    <row r="222" spans="1:17" s="21" customFormat="1" ht="70">
+    <row r="222" spans="1:17" s="21" customFormat="1">
       <c r="A222" s="20" t="s">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="B222" s="20">
         <v>2</v>
@@ -12959,11 +12929,13 @@
         <v>3</v>
       </c>
       <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
-      <c r="H222" s="20"/>
-      <c r="I222" s="20" t="s">
-        <v>861</v>
-      </c>
+      <c r="G222" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="H222" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="I222" s="20"/>
       <c r="J222" s="20"/>
       <c r="K222" s="20"/>
       <c r="L222" s="20"/>
@@ -12973,13 +12945,13 @@
         <v>1074</v>
       </c>
       <c r="P222" s="20" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="Q222" s="20"/>
     </row>
-    <row r="223" spans="1:17" s="21" customFormat="1" ht="42">
+    <row r="223" spans="1:17" s="21" customFormat="1" ht="156.75">
       <c r="A223" s="20" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
       <c r="B223" s="20">
         <v>2</v>
@@ -12992,12 +12964,12 @@
         <v>3</v>
       </c>
       <c r="F223" s="20"/>
-      <c r="G223" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="H223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20" t="s">
+        <v>752</v>
+      </c>
       <c r="I223" s="20" t="s">
-        <v>850</v>
+        <v>751</v>
       </c>
       <c r="J223" s="20"/>
       <c r="K223" s="20"/>
@@ -13008,13 +12980,12 @@
         <v>1074</v>
       </c>
       <c r="P223" s="20" t="s">
-        <v>848</v>
-      </c>
-      <c r="Q223" s="20"/>
-    </row>
-    <row r="224" spans="1:17" s="21" customFormat="1">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A224" s="20" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B224" s="20">
         <v>2</v>
@@ -13028,12 +12999,12 @@
       </c>
       <c r="F224" s="20"/>
       <c r="G224" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="H224" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="I224" s="20"/>
+        <v>830</v>
+      </c>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20" t="s">
+        <v>771</v>
+      </c>
       <c r="J224" s="20"/>
       <c r="K224" s="20"/>
       <c r="L224" s="20"/>
@@ -13043,13 +13014,13 @@
         <v>1074</v>
       </c>
       <c r="P224" s="20" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="Q224" s="20"/>
     </row>
-    <row r="225" spans="1:17" s="21" customFormat="1" ht="140">
+    <row r="225" spans="1:17" s="21" customFormat="1">
       <c r="A225" s="20" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="B225" s="20">
         <v>2</v>
@@ -13062,13 +13033,13 @@
         <v>3</v>
       </c>
       <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
+      <c r="G225" s="20" t="s">
+        <v>802</v>
+      </c>
       <c r="H225" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="I225" s="20" t="s">
-        <v>751</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="I225" s="20"/>
       <c r="J225" s="20"/>
       <c r="K225" s="20"/>
       <c r="L225" s="20"/>
@@ -13078,12 +13049,13 @@
         <v>1074</v>
       </c>
       <c r="P225" s="20" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17" s="21" customFormat="1" ht="42">
+        <v>827</v>
+      </c>
+      <c r="Q225" s="20"/>
+    </row>
+    <row r="226" spans="1:17" s="21" customFormat="1" ht="57">
       <c r="A226" s="20" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B226" s="20">
         <v>2</v>
@@ -13097,12 +13069,10 @@
       </c>
       <c r="F226" s="20"/>
       <c r="G226" s="20" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="H226" s="20"/>
-      <c r="I226" s="20" t="s">
-        <v>771</v>
-      </c>
+      <c r="I226" s="20"/>
       <c r="J226" s="20"/>
       <c r="K226" s="20"/>
       <c r="L226" s="20"/>
@@ -13112,13 +13082,13 @@
         <v>1074</v>
       </c>
       <c r="P226" s="20" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="Q226" s="20"/>
     </row>
-    <row r="227" spans="1:17" s="21" customFormat="1">
+    <row r="227" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A227" s="20" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B227" s="20">
         <v>2</v>
@@ -13131,13 +13101,11 @@
         <v>3</v>
       </c>
       <c r="F227" s="20"/>
-      <c r="G227" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="H227" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="I227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20" t="s">
+        <v>931</v>
+      </c>
       <c r="J227" s="20"/>
       <c r="K227" s="20"/>
       <c r="L227" s="20"/>
@@ -13147,13 +13115,13 @@
         <v>1074</v>
       </c>
       <c r="P227" s="20" t="s">
-        <v>827</v>
+        <v>950</v>
       </c>
       <c r="Q227" s="20"/>
     </row>
-    <row r="228" spans="1:17" s="21" customFormat="1" ht="56">
+    <row r="228" spans="1:17" s="21" customFormat="1" ht="57">
       <c r="A228" s="20" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B228" s="20">
         <v>2</v>
@@ -13167,7 +13135,7 @@
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="20" t="s">
-        <v>822</v>
+        <v>775</v>
       </c>
       <c r="H228" s="20"/>
       <c r="I228" s="20"/>
@@ -13180,13 +13148,13 @@
         <v>1074</v>
       </c>
       <c r="P228" s="20" t="s">
-        <v>821</v>
+        <v>895</v>
       </c>
       <c r="Q228" s="20"/>
     </row>
-    <row r="229" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="229" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A229" s="20" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B229" s="20">
         <v>2</v>
@@ -13200,9 +13168,11 @@
       </c>
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
+      <c r="H229" s="20" t="s">
+        <v>766</v>
+      </c>
       <c r="I229" s="20" t="s">
-        <v>931</v>
+        <v>767</v>
       </c>
       <c r="J229" s="20"/>
       <c r="K229" s="20"/>
@@ -13213,13 +13183,13 @@
         <v>1074</v>
       </c>
       <c r="P229" s="20" t="s">
-        <v>950</v>
+        <v>770</v>
       </c>
       <c r="Q229" s="20"/>
     </row>
-    <row r="230" spans="1:17" s="21" customFormat="1" ht="56">
+    <row r="230" spans="1:17" s="21" customFormat="1">
       <c r="A230" s="20" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B230" s="20">
         <v>2</v>
@@ -13232,10 +13202,10 @@
         <v>3</v>
       </c>
       <c r="F230" s="20"/>
-      <c r="G230" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="H230" s="20"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="20" t="s">
+        <v>742</v>
+      </c>
       <c r="I230" s="20"/>
       <c r="J230" s="20"/>
       <c r="K230" s="20"/>
@@ -13246,13 +13216,13 @@
         <v>1074</v>
       </c>
       <c r="P230" s="20" t="s">
-        <v>895</v>
+        <v>741</v>
       </c>
       <c r="Q230" s="20"/>
     </row>
-    <row r="231" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="231" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A231" s="20" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B231" s="20">
         <v>2</v>
@@ -13267,10 +13237,10 @@
       <c r="F231" s="20"/>
       <c r="G231" s="20"/>
       <c r="H231" s="20" t="s">
-        <v>766</v>
+        <v>923</v>
       </c>
       <c r="I231" s="20" t="s">
-        <v>767</v>
+        <v>922</v>
       </c>
       <c r="J231" s="20"/>
       <c r="K231" s="20"/>
@@ -13281,13 +13251,13 @@
         <v>1074</v>
       </c>
       <c r="P231" s="20" t="s">
-        <v>770</v>
+        <v>958</v>
       </c>
       <c r="Q231" s="20"/>
     </row>
     <row r="232" spans="1:17" s="21" customFormat="1">
       <c r="A232" s="20" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B232" s="20">
         <v>2</v>
@@ -13302,7 +13272,7 @@
       <c r="F232" s="20"/>
       <c r="G232" s="20"/>
       <c r="H232" s="20" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="I232" s="20"/>
       <c r="J232" s="20"/>
@@ -13314,13 +13284,13 @@
         <v>1074</v>
       </c>
       <c r="P232" s="20" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="Q232" s="20"/>
     </row>
-    <row r="233" spans="1:17" s="21" customFormat="1" ht="28">
+    <row r="233" spans="1:17" s="21" customFormat="1" ht="99.75">
       <c r="A233" s="20" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B233" s="20">
         <v>2</v>
@@ -13333,13 +13303,11 @@
         <v>3</v>
       </c>
       <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
-      <c r="H233" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="I233" s="20" t="s">
-        <v>922</v>
-      </c>
+      <c r="G233" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
       <c r="J233" s="20"/>
       <c r="K233" s="20"/>
       <c r="L233" s="20"/>
@@ -13349,13 +13317,13 @@
         <v>1074</v>
       </c>
       <c r="P233" s="20" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="Q233" s="20"/>
     </row>
-    <row r="234" spans="1:17" s="21" customFormat="1">
+    <row r="234" spans="1:17" s="21" customFormat="1" ht="99.75">
       <c r="A234" s="20" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B234" s="20">
         <v>2</v>
@@ -13368,10 +13336,10 @@
         <v>3</v>
       </c>
       <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
-      <c r="H234" s="20" t="s">
-        <v>747</v>
-      </c>
+      <c r="G234" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="H234" s="20"/>
       <c r="I234" s="20"/>
       <c r="J234" s="20"/>
       <c r="K234" s="20"/>
@@ -13382,79 +13350,63 @@
         <v>1074</v>
       </c>
       <c r="P234" s="20" t="s">
-        <v>748</v>
+        <v>907</v>
       </c>
       <c r="Q234" s="20"/>
     </row>
-    <row r="235" spans="1:17" s="21" customFormat="1" ht="98">
-      <c r="A235" s="20" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B235" s="20">
-        <v>2</v>
-      </c>
+    <row r="235" spans="1:17" s="21" customFormat="1">
+      <c r="A235" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B235" s="20"/>
       <c r="C235" s="20"/>
-      <c r="D235" s="20">
-        <v>1</v>
-      </c>
-      <c r="E235" s="20">
-        <v>3</v>
-      </c>
+      <c r="D235" s="20"/>
+      <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="20" t="s">
-        <v>763</v>
-      </c>
+      <c r="G235" s="20"/>
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
       <c r="J235" s="20"/>
       <c r="K235" s="20"/>
       <c r="L235" s="20"/>
-      <c r="M235" s="20"/>
+      <c r="M235" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="N235" s="20"/>
       <c r="O235" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P235" s="20" t="s">
-        <v>961</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="P235" s="20"/>
       <c r="Q235" s="20"/>
     </row>
-    <row r="236" spans="1:17" s="21" customFormat="1" ht="84">
-      <c r="A236" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B236" s="20">
-        <v>2</v>
-      </c>
+    <row r="236" spans="1:17" s="21" customFormat="1">
+      <c r="A236" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B236" s="20"/>
       <c r="C236" s="20"/>
-      <c r="D236" s="20">
-        <v>1</v>
-      </c>
-      <c r="E236" s="20">
-        <v>3</v>
-      </c>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="20" t="s">
-        <v>764</v>
-      </c>
+      <c r="G236" s="20"/>
       <c r="H236" s="20"/>
       <c r="I236" s="20"/>
       <c r="J236" s="20"/>
       <c r="K236" s="20"/>
       <c r="L236" s="20"/>
-      <c r="M236" s="20"/>
+      <c r="M236" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="N236" s="20"/>
       <c r="O236" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P236" s="20" t="s">
-        <v>907</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="P236" s="20"/>
       <c r="Q236" s="20"/>
     </row>
     <row r="237" spans="1:17" s="21" customFormat="1">
       <c r="A237" s="26" t="s">
-        <v>575</v>
+        <v>1070</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
@@ -13479,7 +13431,7 @@
     </row>
     <row r="238" spans="1:17" s="21" customFormat="1">
       <c r="A238" s="26" t="s">
-        <v>1038</v>
+        <v>607</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="20"/>
@@ -13502,59 +13454,75 @@
       <c r="P238" s="20"/>
       <c r="Q238" s="20"/>
     </row>
-    <row r="239" spans="1:17" s="21" customFormat="1">
-      <c r="A239" s="26" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B239" s="20"/>
+    <row r="239" spans="1:17" s="23" customFormat="1">
+      <c r="A239" s="27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B239" s="20">
+        <v>2</v>
+      </c>
       <c r="C239" s="20"/>
-      <c r="D239" s="20"/>
-      <c r="E239" s="20"/>
+      <c r="D239" s="20">
+        <v>1</v>
+      </c>
+      <c r="E239" s="20">
+        <v>3</v>
+      </c>
       <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
-      <c r="H239" s="20"/>
-      <c r="I239" s="20"/>
-      <c r="J239" s="20"/>
-      <c r="K239" s="20"/>
-      <c r="L239" s="20"/>
-      <c r="M239" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="N239" s="20"/>
+      <c r="G239" s="22"/>
+      <c r="H239" s="22"/>
+      <c r="I239" s="22"/>
+      <c r="J239" s="22"/>
+      <c r="K239" s="22"/>
+      <c r="L239" s="22"/>
+      <c r="M239" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="N239" s="22"/>
       <c r="O239" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P239" s="20"/>
-      <c r="Q239" s="20"/>
-    </row>
-    <row r="240" spans="1:17" s="21" customFormat="1">
-      <c r="A240" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B240" s="20"/>
+      <c r="P239" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q239" s="22"/>
+    </row>
+    <row r="240" spans="1:17" s="23" customFormat="1">
+      <c r="A240" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B240" s="20">
+        <v>2</v>
+      </c>
       <c r="C240" s="20"/>
-      <c r="D240" s="20"/>
-      <c r="E240" s="20"/>
+      <c r="D240" s="20">
+        <v>1</v>
+      </c>
+      <c r="E240" s="20">
+        <v>3</v>
+      </c>
       <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
-      <c r="H240" s="20"/>
-      <c r="I240" s="20"/>
-      <c r="J240" s="20"/>
-      <c r="K240" s="20"/>
-      <c r="L240" s="20"/>
-      <c r="M240" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="N240" s="20"/>
+      <c r="G240" s="22"/>
+      <c r="H240" s="22"/>
+      <c r="I240" s="22"/>
+      <c r="J240" s="22"/>
+      <c r="K240" s="22"/>
+      <c r="L240" s="22"/>
+      <c r="M240" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="N240" s="22"/>
       <c r="O240" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P240" s="20"/>
-      <c r="Q240" s="20"/>
+      <c r="P240" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q240" s="22"/>
     </row>
     <row r="241" spans="1:17" s="23" customFormat="1">
       <c r="A241" s="27" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B241" s="20">
         <v>2</v>
@@ -13585,9 +13553,9 @@
       </c>
       <c r="Q241" s="22"/>
     </row>
-    <row r="242" spans="1:17" s="23" customFormat="1">
+    <row r="242" spans="1:17" s="21" customFormat="1">
       <c r="A242" s="27" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="B242" s="20">
         <v>2</v>
@@ -13600,143 +13568,149 @@
         <v>3</v>
       </c>
       <c r="F242" s="20"/>
-      <c r="G242" s="22"/>
-      <c r="H242" s="22"/>
-      <c r="I242" s="22"/>
-      <c r="J242" s="22"/>
-      <c r="K242" s="22"/>
-      <c r="L242" s="22"/>
-      <c r="M242" s="22" t="s">
+      <c r="G242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="20"/>
+      <c r="K242" s="20"/>
+      <c r="L242" s="20"/>
+      <c r="M242" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="N242" s="22"/>
+      <c r="N242" s="20"/>
       <c r="O242" s="20" t="s">
         <v>1075</v>
       </c>
       <c r="P242" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="Q242" s="22"/>
-    </row>
-    <row r="243" spans="1:17" s="23" customFormat="1">
-      <c r="A243" s="27" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B243" s="20">
-        <v>2</v>
-      </c>
+      <c r="Q242" s="20"/>
+    </row>
+    <row r="243" spans="1:17" s="21" customFormat="1">
+      <c r="A243" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="B243" s="20"/>
       <c r="C243" s="20"/>
-      <c r="D243" s="20">
-        <v>1</v>
-      </c>
-      <c r="E243" s="20">
-        <v>3</v>
-      </c>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="22"/>
-      <c r="H243" s="22"/>
-      <c r="I243" s="22"/>
-      <c r="J243" s="22"/>
-      <c r="K243" s="22"/>
-      <c r="L243" s="22"/>
-      <c r="M243" s="22" t="s">
-        <v>918</v>
-      </c>
-      <c r="N243" s="22"/>
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="20"/>
+      <c r="K243" s="20"/>
+      <c r="L243" s="20"/>
+      <c r="M243" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="N243" s="20"/>
       <c r="O243" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P243" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q243" s="22"/>
+      <c r="P243" s="20"/>
+      <c r="Q243" s="20"/>
     </row>
     <row r="244" spans="1:17" s="21" customFormat="1">
       <c r="A244" s="27" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B244" s="20">
-        <v>2</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="B244" s="20"/>
       <c r="C244" s="20"/>
-      <c r="D244" s="20">
-        <v>1</v>
-      </c>
-      <c r="E244" s="20">
-        <v>3</v>
-      </c>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
+      <c r="G244" s="20" t="s">
+        <v>1096</v>
+      </c>
       <c r="H244" s="20"/>
       <c r="I244" s="20"/>
       <c r="J244" s="20"/>
       <c r="K244" s="20"/>
       <c r="L244" s="20"/>
-      <c r="M244" s="20" t="s">
-        <v>918</v>
-      </c>
+      <c r="M244" s="20"/>
       <c r="N244" s="20"/>
       <c r="O244" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P244" s="20" t="s">
-        <v>548</v>
-      </c>
+      <c r="P244" s="20"/>
       <c r="Q244" s="20"/>
     </row>
-    <row r="245" spans="1:17" s="21" customFormat="1">
+    <row r="245" spans="1:17" s="21" customFormat="1" ht="142.5">
       <c r="A245" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="B245" s="20"/>
+        <v>1004</v>
+      </c>
+      <c r="B245" s="20">
+        <v>2</v>
+      </c>
       <c r="C245" s="20"/>
-      <c r="D245" s="20"/>
-      <c r="E245" s="20"/>
+      <c r="D245" s="20">
+        <v>1</v>
+      </c>
+      <c r="E245" s="20">
+        <v>3</v>
+      </c>
       <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
+      <c r="G245" s="20" t="s">
+        <v>1036</v>
+      </c>
       <c r="H245" s="20"/>
-      <c r="I245" s="20"/>
+      <c r="I245" s="20" t="s">
+        <v>755</v>
+      </c>
       <c r="J245" s="20"/>
       <c r="K245" s="20"/>
-      <c r="L245" s="20"/>
-      <c r="M245" s="20" t="s">
-        <v>952</v>
-      </c>
+      <c r="L245" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M245" s="20"/>
       <c r="N245" s="20"/>
       <c r="O245" s="20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P245" s="20"/>
+        <v>1074</v>
+      </c>
+      <c r="P245" s="20" t="s">
+        <v>1007</v>
+      </c>
       <c r="Q245" s="20"/>
     </row>
-    <row r="246" spans="1:17" s="21" customFormat="1">
-      <c r="A246" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="B246" s="20"/>
+    <row r="246" spans="1:17" s="21" customFormat="1" ht="128.25">
+      <c r="A246" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="B246" s="20">
+        <v>2</v>
+      </c>
       <c r="C246" s="20"/>
-      <c r="D246" s="20"/>
-      <c r="E246" s="20"/>
+      <c r="D246" s="20">
+        <v>1</v>
+      </c>
+      <c r="E246" s="20">
+        <v>3</v>
+      </c>
       <c r="F246" s="20"/>
       <c r="G246" s="20" t="s">
-        <v>1096</v>
+        <v>765</v>
       </c>
       <c r="H246" s="20"/>
       <c r="I246" s="20"/>
       <c r="J246" s="20"/>
       <c r="K246" s="20"/>
-      <c r="L246" s="20"/>
+      <c r="L246" s="20" t="s">
+        <v>1005</v>
+      </c>
       <c r="M246" s="20"/>
       <c r="N246" s="20"/>
       <c r="O246" s="20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P246" s="20"/>
+        <v>1074</v>
+      </c>
+      <c r="P246" s="20" t="s">
+        <v>1008</v>
+      </c>
       <c r="Q246" s="20"/>
     </row>
-    <row r="247" spans="1:17" s="21" customFormat="1" ht="140">
-      <c r="A247" s="26" t="s">
-        <v>1004</v>
+    <row r="247" spans="1:17" s="21" customFormat="1" ht="142.5">
+      <c r="A247" s="20" t="s">
+        <v>1085</v>
       </c>
       <c r="B247" s="20">
         <v>2</v>
@@ -13750,12 +13724,10 @@
       </c>
       <c r="F247" s="20"/>
       <c r="G247" s="20" t="s">
-        <v>1036</v>
+        <v>1010</v>
       </c>
       <c r="H247" s="20"/>
-      <c r="I247" s="20" t="s">
-        <v>755</v>
-      </c>
+      <c r="I247" s="20"/>
       <c r="J247" s="20"/>
       <c r="K247" s="20"/>
       <c r="L247" s="20" t="s">
@@ -13764,92 +13736,64 @@
       <c r="M247" s="20"/>
       <c r="N247" s="20"/>
       <c r="O247" s="20" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="P247" s="20" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="Q247" s="20"/>
     </row>
-    <row r="248" spans="1:17" s="21" customFormat="1" ht="126">
-      <c r="A248" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="B248" s="20">
-        <v>2</v>
-      </c>
+    <row r="248" spans="1:17" s="21" customFormat="1" ht="28.5">
+      <c r="A248" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="B248" s="20"/>
       <c r="C248" s="20"/>
-      <c r="D248" s="20">
-        <v>1</v>
-      </c>
-      <c r="E248" s="20">
-        <v>3</v>
-      </c>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="H248" s="20"/>
-      <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="20"/>
-      <c r="L248" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M248" s="20"/>
-      <c r="N248" s="20"/>
+      <c r="N248" s="21" t="s">
+        <v>1065</v>
+      </c>
       <c r="O248" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P248" s="20" t="s">
-        <v>1008</v>
-      </c>
-      <c r="Q248" s="20"/>
-    </row>
-    <row r="249" spans="1:17" s="21" customFormat="1" ht="126">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" s="21" customFormat="1">
       <c r="A249" s="20" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B249" s="20">
-        <v>2</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="B249" s="20"/>
       <c r="C249" s="20"/>
-      <c r="D249" s="20">
-        <v>1</v>
-      </c>
-      <c r="E249" s="20">
-        <v>3</v>
-      </c>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="20" t="s">
-        <v>1010</v>
-      </c>
+      <c r="G249" s="25"/>
       <c r="H249" s="20"/>
       <c r="I249" s="20"/>
       <c r="J249" s="20"/>
       <c r="K249" s="20"/>
-      <c r="L249" s="20" t="s">
-        <v>1005</v>
-      </c>
+      <c r="L249" s="20"/>
       <c r="M249" s="20"/>
-      <c r="N249" s="20"/>
+      <c r="N249" s="21" t="s">
+        <v>1065</v>
+      </c>
       <c r="O249" s="20" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P249" s="20" t="s">
-        <v>1009</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="P249" s="20"/>
       <c r="Q249" s="20"/>
     </row>
-    <row r="250" spans="1:17" s="21" customFormat="1" ht="28">
-      <c r="A250" s="26" t="s">
-        <v>608</v>
+    <row r="250" spans="1:17" ht="28.5">
+      <c r="A250" s="20" t="s">
+        <v>1081</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
+      <c r="G250" s="25"/>
       <c r="N250" s="21" t="s">
         <v>1065</v>
       </c>
@@ -13857,50 +13801,8 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="251" spans="1:17" s="21" customFormat="1">
-      <c r="A251" s="20" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B251" s="20"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="20"/>
-      <c r="E251" s="20"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="25"/>
-      <c r="H251" s="20"/>
-      <c r="I251" s="20"/>
-      <c r="J251" s="20"/>
-      <c r="K251" s="20"/>
-      <c r="L251" s="20"/>
-      <c r="M251" s="20"/>
-      <c r="N251" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O251" s="20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P251" s="20"/>
-      <c r="Q251" s="20"/>
-    </row>
-    <row r="252" spans="1:17" ht="28">
-      <c r="A252" s="20" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B252" s="20"/>
-      <c r="C252" s="20"/>
-      <c r="D252" s="20"/>
-      <c r="E252" s="20"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="25"/>
-      <c r="N252" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O252" s="20" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17">
-      <c r="A253" t="s">
+    <row r="251" spans="1:17">
+      <c r="A251" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -13919,10 +13821,10 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="42.75" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
   </cols>
@@ -13953,7 +13855,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="54">
       <c r="A2" s="28" t="s">
         <v>490</v>
       </c>
@@ -13977,7 +13879,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="56">
+    <row r="3" spans="1:8" ht="54">
       <c r="A3" s="28" t="s">
         <v>492</v>
       </c>
@@ -14001,7 +13903,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="56">
+    <row r="4" spans="1:8" ht="54">
       <c r="A4" s="28" t="s">
         <v>494</v>
       </c>
@@ -14025,7 +13927,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="56">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="28" t="s">
         <v>496</v>
       </c>
@@ -14049,7 +13951,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="56">
+    <row r="6" spans="1:8" ht="54">
       <c r="A6" s="28" t="s">
         <v>498</v>
       </c>
@@ -14073,7 +13975,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="56">
+    <row r="7" spans="1:8" ht="54">
       <c r="A7" s="28" t="s">
         <v>500</v>
       </c>
@@ -14097,7 +13999,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="56">
+    <row r="8" spans="1:8" ht="54">
       <c r="A8" s="28" t="s">
         <v>502</v>
       </c>
@@ -14121,7 +14023,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56">
+    <row r="9" spans="1:8" ht="54">
       <c r="A9" s="28" t="s">
         <v>504</v>
       </c>
@@ -14145,7 +14047,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="56">
+    <row r="10" spans="1:8" ht="54">
       <c r="A10" s="28" t="s">
         <v>506</v>
       </c>
@@ -14169,7 +14071,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="56">
+    <row r="11" spans="1:8" ht="54">
       <c r="A11" s="28" t="s">
         <v>508</v>
       </c>
@@ -14193,7 +14095,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="56">
+    <row r="12" spans="1:8" ht="54">
       <c r="A12" s="28" t="s">
         <v>510</v>
       </c>
@@ -14217,7 +14119,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="56">
+    <row r="13" spans="1:8" ht="54">
       <c r="A13" s="28" t="s">
         <v>512</v>
       </c>
@@ -14241,7 +14143,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="56">
+    <row r="14" spans="1:8" ht="54">
       <c r="A14" s="28" t="s">
         <v>514</v>
       </c>
@@ -14265,7 +14167,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="56">
+    <row r="15" spans="1:8" ht="54">
       <c r="A15" s="28" t="s">
         <v>516</v>
       </c>
@@ -14289,7 +14191,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="56">
+    <row r="16" spans="1:8" ht="54">
       <c r="A16" s="37" t="s">
         <v>518</v>
       </c>
@@ -14313,7 +14215,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="56">
+    <row r="17" spans="1:8" ht="54">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="28" t="s">
@@ -14333,7 +14235,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="56">
+    <row r="18" spans="1:8" ht="54">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="28" t="s">
@@ -14353,7 +14255,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="56">
+    <row r="19" spans="1:8" ht="54">
       <c r="A19" s="28" t="s">
         <v>519</v>
       </c>
@@ -14395,13 +14297,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14430,7 +14332,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="54">
       <c r="A2" s="29" t="s">
         <v>379</v>
       </c>
@@ -14454,7 +14356,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="98">
+    <row r="3" spans="1:8" ht="99.75">
       <c r="A3" s="29" t="s">
         <v>382</v>
       </c>
@@ -14480,7 +14382,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="56">
+    <row r="4" spans="1:8" ht="54">
       <c r="A4" s="29" t="s">
         <v>385</v>
       </c>
@@ -14504,7 +14406,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="56">
+    <row r="5" spans="1:8" ht="54">
       <c r="A5" s="29" t="s">
         <v>388</v>
       </c>
@@ -14528,7 +14430,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="56">
+    <row r="6" spans="1:8" ht="54">
       <c r="A6" s="29" t="s">
         <v>390</v>
       </c>
@@ -14552,7 +14454,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="56">
+    <row r="7" spans="1:8" ht="54">
       <c r="A7" s="29" t="s">
         <v>393</v>
       </c>
@@ -14576,7 +14478,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="56">
+    <row r="8" spans="1:8" ht="54">
       <c r="A8" s="29" t="s">
         <v>396</v>
       </c>
@@ -14600,7 +14502,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56">
+    <row r="9" spans="1:8" ht="54">
       <c r="A9" s="29" t="s">
         <v>399</v>
       </c>
@@ -14624,7 +14526,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="56">
+    <row r="10" spans="1:8" ht="54">
       <c r="A10" s="29" t="s">
         <v>402</v>
       </c>
@@ -14648,7 +14550,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="56">
+    <row r="11" spans="1:8" ht="54">
       <c r="A11" s="29" t="s">
         <v>405</v>
       </c>
@@ -14672,7 +14574,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="56">
+    <row r="12" spans="1:8" ht="54">
       <c r="A12" s="29" t="s">
         <v>408</v>
       </c>
@@ -14696,7 +14598,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="56">
+    <row r="13" spans="1:8" ht="54">
       <c r="A13" s="29" t="s">
         <v>411</v>
       </c>
@@ -14720,7 +14622,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="56">
+    <row r="14" spans="1:8" ht="54">
       <c r="A14" s="29" t="s">
         <v>414</v>
       </c>
@@ -14744,7 +14646,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="56">
+    <row r="15" spans="1:8" ht="54">
       <c r="A15" s="38" t="s">
         <v>417</v>
       </c>
@@ -14768,7 +14670,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="56">
+    <row r="16" spans="1:8" ht="54">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="29" t="s">
@@ -14788,7 +14690,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="56">
+    <row r="17" spans="1:8" ht="54">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="29" t="s">
@@ -14808,7 +14710,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="56">
+    <row r="18" spans="1:8" ht="54">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="29" t="s">
@@ -14828,7 +14730,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="56">
+    <row r="19" spans="1:8" ht="54">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="29" t="s">
@@ -14848,7 +14750,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="56">
+    <row r="20" spans="1:8" ht="54">
       <c r="A20" s="29" t="s">
         <v>424</v>
       </c>
@@ -14872,7 +14774,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="210">
+    <row r="21" spans="1:8" ht="213.75">
       <c r="A21" s="29" t="s">
         <v>427</v>
       </c>
@@ -14898,7 +14800,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="56">
+    <row r="22" spans="1:8" ht="54">
       <c r="A22" s="29" t="s">
         <v>430</v>
       </c>
@@ -14922,7 +14824,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="56">
+    <row r="23" spans="1:8" ht="54">
       <c r="A23" s="29" t="s">
         <v>433</v>
       </c>
@@ -14946,7 +14848,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="56">
+    <row r="24" spans="1:8" ht="54">
       <c r="A24" s="29" t="s">
         <v>436</v>
       </c>
@@ -14970,7 +14872,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="56">
+    <row r="25" spans="1:8" ht="54">
       <c r="A25" s="29" t="s">
         <v>439</v>
       </c>
@@ -14994,7 +14896,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="56">
+    <row r="26" spans="1:8" ht="54">
       <c r="A26" s="29" t="s">
         <v>442</v>
       </c>
@@ -15018,7 +14920,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="56">
+    <row r="27" spans="1:8" ht="54">
       <c r="A27" s="29" t="s">
         <v>445</v>
       </c>
@@ -15042,7 +14944,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="56">
+    <row r="28" spans="1:8" ht="54">
       <c r="A28" s="29" t="s">
         <v>448</v>
       </c>
@@ -15066,7 +14968,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14" customHeight="1">
+    <row r="29" spans="1:8" ht="14.1" customHeight="1">
       <c r="A29" s="38" t="s">
         <v>451</v>
       </c>
@@ -15090,7 +14992,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="56">
+    <row r="30" spans="1:8" ht="54">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="29" t="s">
@@ -15110,7 +15012,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="56">
+    <row r="31" spans="1:8" ht="54">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="29" t="s">
@@ -15130,7 +15032,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="238">
+    <row r="32" spans="1:8" ht="242.25">
       <c r="A32" s="38" t="s">
         <v>456</v>
       </c>
@@ -15156,7 +15058,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="56">
+    <row r="33" spans="1:8" ht="54">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="29" t="s">
@@ -15176,7 +15078,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="56">
+    <row r="34" spans="1:8" ht="54">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="29" t="s">
@@ -15196,7 +15098,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14" customHeight="1">
+    <row r="35" spans="1:8" ht="14.1" customHeight="1">
       <c r="A35" s="38" t="s">
         <v>460</v>
       </c>
@@ -15220,7 +15122,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="56">
+    <row r="36" spans="1:8" ht="54">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="29" t="s">
@@ -15240,7 +15142,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="56">
+    <row r="37" spans="1:8" ht="54">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="29" t="s">
@@ -15260,7 +15162,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14" customHeight="1">
+    <row r="38" spans="1:8" ht="14.1" customHeight="1">
       <c r="A38" s="38" t="s">
         <v>464</v>
       </c>
@@ -15284,7 +15186,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="56">
+    <row r="39" spans="1:8" ht="54">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="29" t="s">
@@ -15304,7 +15206,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="56">
+    <row r="40" spans="1:8" ht="54">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="29" t="s">
@@ -15324,7 +15226,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14" customHeight="1">
+    <row r="41" spans="1:8" ht="14.1" customHeight="1">
       <c r="A41" s="38" t="s">
         <v>468</v>
       </c>
@@ -15348,7 +15250,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="56">
+    <row r="42" spans="1:8" ht="54">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="29" t="s">
@@ -15368,7 +15270,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="56">
+    <row r="43" spans="1:8" ht="54">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="29" t="s">
@@ -15388,7 +15290,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="126">
+    <row r="44" spans="1:8" ht="128.25">
       <c r="A44" s="29" t="s">
         <v>472</v>
       </c>
@@ -15414,7 +15316,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="56">
+    <row r="45" spans="1:8" ht="54">
       <c r="A45" s="29" t="s">
         <v>474</v>
       </c>
@@ -15438,7 +15340,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="56">
+    <row r="46" spans="1:8" ht="54">
       <c r="A46" s="29" t="s">
         <v>477</v>
       </c>
@@ -15462,7 +15364,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="56">
+    <row r="47" spans="1:8" ht="54">
       <c r="A47" s="38" t="s">
         <v>480</v>
       </c>
@@ -15486,7 +15388,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="56">
+    <row r="48" spans="1:8" ht="54">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="29" t="s">
@@ -15506,7 +15408,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="56">
+    <row r="49" spans="1:8" ht="54">
       <c r="A49" s="38" t="s">
         <v>484</v>
       </c>
@@ -15530,7 +15432,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="56">
+    <row r="50" spans="1:8" ht="54">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="29" t="s">
@@ -15550,7 +15452,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="70">
+    <row r="51" spans="1:8" ht="67.5">
       <c r="A51" s="29" t="s">
         <v>487</v>
       </c>
@@ -15576,12 +15478,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A49:A50"/>
@@ -15592,6 +15488,12 @@
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15608,11 +15510,11 @@
       <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" customWidth="1"/>
-    <col min="3" max="3" width="63.08203125" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="63.125" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
@@ -15640,7 +15542,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="70">
+    <row r="2" spans="1:7" ht="67.5">
       <c r="A2" s="9" t="s">
         <v>562</v>
       </c>
@@ -15663,7 +15565,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="154">
+    <row r="3" spans="1:7" ht="156.75">
       <c r="A3" s="9" t="s">
         <v>1351</v>
       </c>
@@ -15684,7 +15586,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="56">
+    <row r="4" spans="1:7" ht="135">
       <c r="A4" s="9" t="s">
         <v>564</v>
       </c>
@@ -15705,7 +15607,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42">
+    <row r="5" spans="1:7" ht="40.5">
       <c r="A5" s="9" t="s">
         <v>566</v>
       </c>
@@ -15724,7 +15626,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="28">
+    <row r="6" spans="1:7" ht="28.5">
       <c r="A6" s="9" t="s">
         <v>568</v>
       </c>
@@ -15745,7 +15647,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="182">
+    <row r="7" spans="1:7" ht="189">
       <c r="A7" s="9" t="s">
         <v>1352</v>
       </c>
@@ -15768,7 +15670,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42">
+    <row r="8" spans="1:7" ht="42.75">
       <c r="A8" s="9" t="s">
         <v>1353</v>
       </c>
@@ -15789,7 +15691,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112">
+    <row r="9" spans="1:7" ht="108">
       <c r="A9" s="9" t="s">
         <v>575</v>
       </c>
@@ -15812,7 +15714,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28">
+    <row r="10" spans="1:7" ht="28.5">
       <c r="A10" s="9" t="s">
         <v>577</v>
       </c>
@@ -15833,7 +15735,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28">
+    <row r="11" spans="1:7" ht="27">
       <c r="A11" s="9" t="s">
         <v>1354</v>
       </c>
@@ -15854,7 +15756,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="84">
+    <row r="12" spans="1:7" ht="85.5">
       <c r="A12" s="9" t="s">
         <v>1355</v>
       </c>
@@ -15875,7 +15777,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28">
+    <row r="13" spans="1:7" ht="135">
       <c r="A13" s="9" t="s">
         <v>1356</v>
       </c>
@@ -15896,7 +15798,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42">
+    <row r="14" spans="1:7" ht="135">
       <c r="A14" s="9" t="s">
         <v>586</v>
       </c>
@@ -15917,7 +15819,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="42">
+    <row r="15" spans="1:7" ht="135">
       <c r="A15" s="9" t="s">
         <v>587</v>
       </c>
@@ -15938,7 +15840,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28">
+    <row r="16" spans="1:7" ht="135">
       <c r="A16" s="9" t="s">
         <v>588</v>
       </c>
@@ -15959,7 +15861,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56">
+    <row r="17" spans="1:7" ht="57">
       <c r="A17" s="9" t="s">
         <v>1357</v>
       </c>
@@ -15982,7 +15884,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28">
+    <row r="18" spans="1:7" ht="27">
       <c r="A18" s="9" t="s">
         <v>1358</v>
       </c>
@@ -15999,7 +15901,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="28">
+    <row r="19" spans="1:7" ht="27">
       <c r="A19" s="9" t="s">
         <v>1359</v>
       </c>
@@ -16014,7 +15916,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="42">
+    <row r="20" spans="1:7" ht="135">
       <c r="A20" s="9" t="s">
         <v>596</v>
       </c>
@@ -16035,7 +15937,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28">
+    <row r="21" spans="1:7" ht="135">
       <c r="A21" s="9" t="s">
         <v>598</v>
       </c>
@@ -16056,7 +15958,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28">
+    <row r="22" spans="1:7" ht="28.5">
       <c r="A22" s="9" t="s">
         <v>1360</v>
       </c>
@@ -16098,7 +16000,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="168">
+    <row r="24" spans="1:7" ht="162">
       <c r="A24" s="9" t="s">
         <v>604</v>
       </c>
@@ -16121,7 +16023,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="56">
+    <row r="25" spans="1:7" ht="135">
       <c r="A25" s="9" t="s">
         <v>607</v>
       </c>
@@ -16142,7 +16044,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="42">
+    <row r="26" spans="1:7" ht="135">
       <c r="A26" s="9" t="s">
         <v>608</v>
       </c>
@@ -16159,7 +16061,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="42">
+    <row r="27" spans="1:7" ht="135">
       <c r="A27" s="9" t="s">
         <v>610</v>
       </c>
@@ -16176,7 +16078,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="42">
+    <row r="28" spans="1:7" ht="40.5">
       <c r="A28" s="9" t="s">
         <v>611</v>
       </c>
@@ -16202,19 +16104,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="71.08203125" customWidth="1"/>
+    <col min="2" max="2" width="71.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="18" t="s">
         <v>720</v>
       </c>
@@ -16222,7 +16124,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="70">
+    <row r="2" spans="1:18" ht="71.25">
       <c r="A2" s="20" t="s">
         <v>643</v>
       </c>
@@ -16230,7 +16132,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="42">
+    <row r="3" spans="1:18" ht="42.75">
       <c r="A3" s="20" t="s">
         <v>644</v>
       </c>
@@ -16238,7 +16140,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="21" customFormat="1" ht="42">
+    <row r="4" spans="1:18" s="21" customFormat="1" ht="42.75">
       <c r="A4" s="20" t="s">
         <v>521</v>
       </c>
@@ -16255,7 +16157,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:18" ht="28.5">
       <c r="A5" s="20" t="s">
         <v>948</v>
       </c>
@@ -16263,13 +16165,111 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28">
+    <row r="6" spans="1:18" ht="27.75">
       <c r="A6" s="20" t="s">
         <v>1067</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>1069</v>
       </c>
+    </row>
+    <row r="7" spans="1:18" ht="28.5">
+      <c r="A7" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" s="21" customFormat="1">
+      <c r="A8" s="20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" s="21" customFormat="1">
+      <c r="A9" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q9" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -16286,17 +16286,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="94.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="98">
+    <row r="1" spans="1:1" ht="99.75">
       <c r="A1" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.5" customHeight="1">
+    <row r="2" spans="1:1" ht="14.45" customHeight="1">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1">
@@ -16317,17 +16317,17 @@
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.58203125" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="41.58203125" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="20">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="20.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="28.5">
       <c r="A2" s="28" t="s">
         <v>124</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="154">
+    <row r="3" spans="1:8" ht="171">
       <c r="A3" s="28" t="s">
         <v>127</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28">
+    <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="28" t="s">
         <v>133</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28">
+    <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="28" t="s">
         <v>138</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="28.5">
       <c r="A10" s="28" t="s">
         <v>145</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28">
+    <row r="12" spans="1:8" ht="28.5">
       <c r="A12" s="28" t="s">
         <v>151</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="84">
+    <row r="20" spans="1:8" ht="85.5">
       <c r="A20" s="28" t="s">
         <v>175</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28">
+    <row r="21" spans="1:8" ht="28.5">
       <c r="A21" s="28" t="s">
         <v>178</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42">
+    <row r="23" spans="1:8" ht="42.75">
       <c r="A23" s="28" t="s">
         <v>184</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="140">
+    <row r="24" spans="1:8" ht="142.5">
       <c r="A24" s="28" t="s">
         <v>186</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28">
+    <row r="26" spans="1:8" ht="28.5">
       <c r="A26" s="28" t="s">
         <v>190</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28">
+    <row r="28" spans="1:8" ht="28.5">
       <c r="A28" s="28" t="s">
         <v>1339</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28">
+    <row r="29" spans="1:8" ht="28.5">
       <c r="A29" s="28" t="s">
         <v>1340</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28">
+    <row r="30" spans="1:8" ht="28.5">
       <c r="A30" s="28" t="s">
         <v>198</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="84">
+    <row r="35" spans="1:8" ht="99.75">
       <c r="A35" s="28" t="s">
         <v>208</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="84">
+    <row r="36" spans="1:8" ht="85.5">
       <c r="A36" s="28" t="s">
         <v>211</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="98">
+    <row r="37" spans="1:8" ht="114">
       <c r="A37" s="28" t="s">
         <v>1337</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="98">
+    <row r="38" spans="1:8" ht="99.75">
       <c r="A38" s="28" t="s">
         <v>1338</v>
       </c>
@@ -17260,18 +17260,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.58203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="32.58203125" customWidth="1"/>
-    <col min="5" max="5" width="8.58203125" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17301,7 +17301,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="28.5">
       <c r="A2" s="29" t="s">
         <v>1145</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="56">
+    <row r="3" spans="1:8" ht="57">
       <c r="A3" s="29" t="s">
         <v>1341</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="29" t="s">
         <v>523</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="29" t="s">
         <v>1150</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28">
+    <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="29" t="s">
         <v>1152</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42">
+    <row r="7" spans="1:8" ht="42.75">
       <c r="A7" s="29" t="s">
         <v>1154</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="29" t="s">
         <v>524</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28">
+    <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="29" t="s">
         <v>1342</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28">
+    <row r="10" spans="1:8" ht="28.5">
       <c r="A10" s="29" t="s">
         <v>1160</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28">
+    <row r="11" spans="1:8" ht="28.5">
       <c r="A11" s="29" t="s">
         <v>1162</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28">
+    <row r="13" spans="1:8" ht="42.75">
       <c r="A13" s="29" t="s">
         <v>1166</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42">
+    <row r="14" spans="1:8" ht="42.75">
       <c r="A14" s="29" t="s">
         <v>1168</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42">
+    <row r="15" spans="1:8" ht="42.75">
       <c r="A15" s="29" t="s">
         <v>1170</v>
       </c>
@@ -17643,7 +17643,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28">
+    <row r="16" spans="1:8" ht="28.5">
       <c r="A16" s="29" t="s">
         <v>1172</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28">
+    <row r="17" spans="1:8" ht="28.5">
       <c r="A17" s="29" t="s">
         <v>1174</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28">
+    <row r="18" spans="1:8" ht="28.5">
       <c r="A18" s="29" t="s">
         <v>1343</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28">
+    <row r="19" spans="1:8" ht="28.5">
       <c r="A19" s="29" t="s">
         <v>1175</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="56">
+    <row r="20" spans="1:8" ht="57">
       <c r="A20" s="29" t="s">
         <v>1177</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28">
+    <row r="22" spans="1:8" ht="27">
       <c r="A22" s="29" t="s">
         <v>1181</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42">
+    <row r="23" spans="1:8" ht="42.75">
       <c r="A23" s="29" t="s">
         <v>1183</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28">
+    <row r="24" spans="1:8" ht="28.5">
       <c r="A24" s="29" t="s">
         <v>1185</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28">
+    <row r="25" spans="1:8" ht="28.5">
       <c r="A25" s="29" t="s">
         <v>526</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28">
+    <row r="26" spans="1:8" ht="28.5">
       <c r="A26" s="29" t="s">
         <v>1187</v>
       </c>
@@ -17907,7 +17907,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28">
+    <row r="27" spans="1:8" ht="28.5">
       <c r="A27" s="29" t="s">
         <v>1189</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28">
+    <row r="28" spans="1:8" ht="27">
       <c r="A28" s="29" t="s">
         <v>1191</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28">
+    <row r="29" spans="1:8" ht="27">
       <c r="A29" s="29" t="s">
         <v>1193</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="42">
+    <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="29" t="s">
         <v>1195</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="42">
+    <row r="31" spans="1:8" ht="40.5">
       <c r="A31" s="29" t="s">
         <v>527</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28">
+    <row r="32" spans="1:8" ht="27">
       <c r="A32" s="29" t="s">
         <v>1198</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28">
+    <row r="33" spans="1:8" ht="28.5">
       <c r="A33" s="29" t="s">
         <v>1200</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28">
+    <row r="34" spans="1:8" ht="28.5">
       <c r="A34" s="29" t="s">
         <v>1202</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28">
+    <row r="35" spans="1:8" ht="28.5">
       <c r="A35" s="29" t="s">
         <v>1204</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="42">
+    <row r="36" spans="1:8" ht="40.5">
       <c r="A36" s="29" t="s">
         <v>1206</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="42">
+    <row r="38" spans="1:8" ht="42.75">
       <c r="A38" s="29" t="s">
         <v>1211</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28">
+    <row r="39" spans="1:8" ht="28.5">
       <c r="A39" s="29" t="s">
         <v>1213</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28">
+    <row r="40" spans="1:8" ht="28.5">
       <c r="A40" s="29" t="s">
         <v>1216</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28">
+    <row r="41" spans="1:8" ht="28.5">
       <c r="A41" s="29" t="s">
         <v>1219</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28">
+    <row r="42" spans="1:8" ht="27">
       <c r="A42" s="29" t="s">
         <v>1221</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28">
+    <row r="43" spans="1:8" ht="28.5">
       <c r="A43" s="29" t="s">
         <v>1223</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="42">
+    <row r="44" spans="1:8" ht="42.75">
       <c r="A44" s="29" t="s">
         <v>1225</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28">
+    <row r="45" spans="1:8" ht="28.5">
       <c r="A45" s="29" t="s">
         <v>1227</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="42">
+    <row r="47" spans="1:8" ht="40.5">
       <c r="A47" s="29" t="s">
         <v>1231</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="42">
+    <row r="48" spans="1:8" ht="42.75">
       <c r="A48" s="29" t="s">
         <v>1232</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28">
+    <row r="49" spans="1:8" ht="28.5">
       <c r="A49" s="29" t="s">
         <v>1234</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="42">
+    <row r="50" spans="1:8" ht="42.75">
       <c r="A50" s="29" t="s">
         <v>1236</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28">
+    <row r="51" spans="1:8" ht="27">
       <c r="A51" s="29" t="s">
         <v>535</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="42">
+    <row r="52" spans="1:8" ht="42.75">
       <c r="A52" s="29" t="s">
         <v>1240</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28">
+    <row r="53" spans="1:8" ht="28.5">
       <c r="A53" s="29" t="s">
         <v>1244</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28">
+    <row r="54" spans="1:8" ht="28.5">
       <c r="A54" s="29" t="s">
         <v>532</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="42">
+    <row r="55" spans="1:8" ht="42.75">
       <c r="A55" s="29" t="s">
         <v>1246</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28">
+    <row r="56" spans="1:8" ht="27">
       <c r="A56" s="29" t="s">
         <v>1248</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="42">
+    <row r="57" spans="1:8" ht="54">
       <c r="A57" s="29" t="s">
         <v>533</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28">
+    <row r="58" spans="1:8" ht="28.5">
       <c r="A58" s="29" t="s">
         <v>1251</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="28">
+    <row r="59" spans="1:8" ht="28.5">
       <c r="A59" s="29" t="s">
         <v>534</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28">
+    <row r="60" spans="1:8" ht="27">
       <c r="A60" s="29" t="s">
         <v>1254</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28">
+    <row r="61" spans="1:8" ht="28.5">
       <c r="A61" s="29" t="s">
         <v>531</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="42">
+    <row r="62" spans="1:8" ht="40.5">
       <c r="A62" s="29" t="s">
         <v>1256</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="70">
+    <row r="63" spans="1:8" ht="71.25">
       <c r="A63" s="29" t="s">
         <v>643</v>
       </c>
@@ -18799,7 +18799,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="28.5">
       <c r="A64" s="29" t="s">
         <v>1264</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="42">
+    <row r="65" spans="1:8" ht="42.75">
       <c r="A65" s="29" t="s">
         <v>1267</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="42">
+    <row r="66" spans="1:8" ht="40.5">
       <c r="A66" s="29" t="s">
         <v>644</v>
       </c>
@@ -18869,7 +18869,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" ht="126">
+    <row r="67" spans="1:8" ht="142.5">
       <c r="A67" s="29" t="s">
         <v>660</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="42">
+    <row r="68" spans="1:8" ht="40.5">
       <c r="A68" s="29" t="s">
         <v>927</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="42">
+    <row r="69" spans="1:8" ht="40.5">
       <c r="A69" s="29" t="s">
         <v>529</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28">
+    <row r="70" spans="1:8" ht="27">
       <c r="A70" s="29" t="s">
         <v>528</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="56">
+    <row r="72" spans="1:8" ht="71.25">
       <c r="A72" s="29" t="s">
         <v>1275</v>
       </c>
@@ -19015,268 +19015,268 @@
         <v>633</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="27">
+    <row r="116" spans="1:3" ht="29.25">
       <c r="A116" s="2"/>
     </row>
-    <row r="118" spans="1:3" ht="14.5" thickBot="1">
+    <row r="118" spans="1:3" ht="15" thickBot="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="14.5" thickBot="1">
+    <row r="119" spans="1:3" ht="15" thickBot="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="1:3" ht="14.5" thickBot="1">
+    <row r="120" spans="1:3" ht="15" thickBot="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="1:3" ht="14.5" thickBot="1">
+    <row r="121" spans="1:3" ht="15" thickBot="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:3" ht="14.5" thickBot="1">
+    <row r="122" spans="1:3" ht="15" thickBot="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="1:3" ht="14.5" thickBot="1">
+    <row r="123" spans="1:3" ht="15" thickBot="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="1:3" ht="14.5" thickBot="1">
+    <row r="124" spans="1:3" ht="15" thickBot="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="1:3" ht="14.5" thickBot="1">
+    <row r="125" spans="1:3" ht="15" thickBot="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:3" ht="14.5" thickBot="1">
+    <row r="126" spans="1:3" ht="15" thickBot="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="1:3" ht="14.5" thickBot="1">
+    <row r="127" spans="1:3" ht="15" thickBot="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" ht="14.5" thickBot="1">
+    <row r="128" spans="1:3" ht="15" thickBot="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="1:3" ht="14.5" thickBot="1">
+    <row r="129" spans="1:3" ht="15" thickBot="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="1:3" ht="14.5" thickBot="1">
+    <row r="130" spans="1:3" ht="15" thickBot="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="1:3" ht="14.5" thickBot="1">
+    <row r="131" spans="1:3" ht="15" thickBot="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="1:3" ht="14.5" thickBot="1">
+    <row r="132" spans="1:3" ht="15" thickBot="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="1:3" ht="14.5" thickBot="1">
+    <row r="133" spans="1:3" ht="15" thickBot="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="1:3" ht="14.5" thickBot="1">
+    <row r="134" spans="1:3" ht="15" thickBot="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="1:3" ht="14.5" thickBot="1">
+    <row r="135" spans="1:3" ht="15" thickBot="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="1:3" ht="14.5" thickBot="1">
+    <row r="136" spans="1:3" ht="15" thickBot="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:3" ht="14.5" thickBot="1">
+    <row r="137" spans="1:3" ht="15" thickBot="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="1:3" ht="14.5" thickBot="1">
+    <row r="138" spans="1:3" ht="15" thickBot="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="14.5" thickBot="1">
+    <row r="139" spans="1:3" ht="15" thickBot="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="1:3" ht="14.5" thickBot="1">
+    <row r="140" spans="1:3" ht="15" thickBot="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="1:3" ht="14.5" thickBot="1">
+    <row r="141" spans="1:3" ht="15" thickBot="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="1:3" ht="14.5" thickBot="1">
+    <row r="142" spans="1:3" ht="15" thickBot="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="1:3" ht="14.5" thickBot="1">
+    <row r="143" spans="1:3" ht="15" thickBot="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="1:3" ht="14.5" thickBot="1">
+    <row r="144" spans="1:3" ht="15" thickBot="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:3" ht="14.5" thickBot="1">
+    <row r="145" spans="1:3" ht="15" thickBot="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" ht="14.5" thickBot="1">
+    <row r="146" spans="1:3" ht="15" thickBot="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" ht="14.5" thickBot="1">
+    <row r="147" spans="1:3" ht="15" thickBot="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="1:3" ht="14.5" thickBot="1">
+    <row r="148" spans="1:3" ht="15" thickBot="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="1:3" ht="14.5" thickBot="1">
+    <row r="149" spans="1:3" ht="15" thickBot="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:3" ht="14.5" thickBot="1">
+    <row r="150" spans="1:3" ht="15" thickBot="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="1:3" ht="14.5" thickBot="1">
+    <row r="151" spans="1:3" ht="15" thickBot="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:3" ht="14.5" thickBot="1">
+    <row r="152" spans="1:3" ht="15" thickBot="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:3" ht="14.5" thickBot="1">
+    <row r="153" spans="1:3" ht="15" thickBot="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="1:3" ht="14.5" thickBot="1">
+    <row r="154" spans="1:3" ht="15" thickBot="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="1:3" ht="14.5" thickBot="1">
+    <row r="155" spans="1:3" ht="15" thickBot="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="1:3" ht="14.5" thickBot="1">
+    <row r="156" spans="1:3" ht="15" thickBot="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
     </row>
-    <row r="171" spans="1:3" ht="27">
+    <row r="171" spans="1:3" ht="29.25">
       <c r="A171" s="2"/>
     </row>
-    <row r="173" spans="1:3" ht="14.5" thickBot="1">
+    <row r="173" spans="1:3" ht="15" thickBot="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" ht="14.5" thickBot="1">
+    <row r="174" spans="1:3" ht="15" thickBot="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="1:3" ht="14.5" thickBot="1">
+    <row r="175" spans="1:3" ht="15" thickBot="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="1:3" ht="14.5" thickBot="1">
+    <row r="176" spans="1:3" ht="15" thickBot="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="14.5" thickBot="1">
+    <row r="177" spans="1:3" ht="15" thickBot="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="1:3" ht="14.5" thickBot="1">
+    <row r="178" spans="1:3" ht="15" thickBot="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="1:3" ht="14.5" thickBot="1">
+    <row r="179" spans="1:3" ht="15" thickBot="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="1:3" ht="14.5" thickBot="1">
+    <row r="180" spans="1:3" ht="15" thickBot="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="1:3" ht="14.5" thickBot="1">
+    <row r="181" spans="1:3" ht="15" thickBot="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="1:3" ht="14.5" thickBot="1">
+    <row r="182" spans="1:3" ht="15" thickBot="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:3" ht="14.5" thickBot="1">
+    <row r="183" spans="1:3" ht="15" thickBot="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:3" ht="14.5" thickBot="1">
+    <row r="184" spans="1:3" ht="15" thickBot="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="1:3" ht="14.5" thickBot="1">
+    <row r="185" spans="1:3" ht="15" thickBot="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -19297,14 +19297,14 @@
       <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.08203125" customWidth="1"/>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="10.9140625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19357,7 +19357,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28">
+    <row r="3" spans="1:8" ht="28.5">
       <c r="A3" s="28" t="s">
         <v>349</v>
       </c>
@@ -19453,7 +19453,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28">
+    <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="28" t="s">
         <v>358</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28">
+    <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="28" t="s">
         <v>361</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28">
+    <row r="11" spans="1:8" ht="28.5">
       <c r="A11" s="28" t="s">
         <v>365</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28">
+    <row r="13" spans="1:8" ht="28.5">
       <c r="A13" s="28" t="s">
         <v>370</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="56">
+    <row r="14" spans="1:8" ht="54">
       <c r="A14" s="28" t="s">
         <v>373</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28">
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="28" t="s">
         <v>375</v>
       </c>
@@ -19711,14 +19711,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="19.08203125" customWidth="1"/>
-    <col min="6" max="6" width="35.9140625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19747,7 +19747,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="84">
+    <row r="2" spans="1:8" ht="81">
       <c r="A2" s="29" t="s">
         <v>215</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="84">
+    <row r="3" spans="1:8" ht="81">
       <c r="A3" s="29" t="s">
         <v>217</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="84">
+    <row r="4" spans="1:8" ht="81">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="84">
+    <row r="5" spans="1:8" ht="81">
       <c r="A5" s="29" t="s">
         <v>1298</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="84">
+    <row r="6" spans="1:8" ht="81">
       <c r="A6" s="29" t="s">
         <v>220</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="84">
+    <row r="7" spans="1:8" ht="81">
       <c r="A7" s="29" t="s">
         <v>222</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="84">
+    <row r="8" spans="1:8" ht="81">
       <c r="A8" s="29" t="s">
         <v>224</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="84">
+    <row r="9" spans="1:8" ht="81">
       <c r="A9" s="29" t="s">
         <v>226</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="84">
+    <row r="10" spans="1:8" ht="81">
       <c r="A10" s="29" t="s">
         <v>228</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="84">
+    <row r="11" spans="1:8" ht="81">
       <c r="A11" s="29" t="s">
         <v>231</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="84">
+    <row r="12" spans="1:8" ht="81">
       <c r="A12" s="29" t="s">
         <v>234</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="84">
+    <row r="13" spans="1:8" ht="81">
       <c r="A13" s="29" t="s">
         <v>237</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84">
+    <row r="14" spans="1:8" ht="81">
       <c r="A14" s="29" t="s">
         <v>239</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="84">
+    <row r="15" spans="1:8" ht="81">
       <c r="A15" s="29" t="s">
         <v>241</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="84">
+    <row r="16" spans="1:8" ht="81">
       <c r="A16" s="29" t="s">
         <v>243</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="84">
+    <row r="17" spans="1:8" ht="81">
       <c r="A17" s="29" t="s">
         <v>246</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="84">
+    <row r="18" spans="1:8" ht="81">
       <c r="A18" s="29" t="s">
         <v>249</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="84">
+    <row r="19" spans="1:8" ht="81">
       <c r="A19" s="29" t="s">
         <v>251</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="84">
+    <row r="20" spans="1:8" ht="81">
       <c r="A20" s="29" t="s">
         <v>253</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="84">
+    <row r="21" spans="1:8" ht="81">
       <c r="A21" s="29" t="s">
         <v>255</v>
       </c>
@@ -20227,7 +20227,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="84">
+    <row r="22" spans="1:8" ht="81">
       <c r="A22" s="29" t="s">
         <v>258</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="84">
+    <row r="23" spans="1:8" ht="81">
       <c r="A23" s="29" t="s">
         <v>261</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="84">
+    <row r="24" spans="1:8" ht="81">
       <c r="A24" s="29" t="s">
         <v>264</v>
       </c>
@@ -20299,7 +20299,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="84">
+    <row r="25" spans="1:8" ht="81">
       <c r="A25" s="29" t="s">
         <v>266</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="84">
+    <row r="26" spans="1:8" ht="81">
       <c r="A26" s="29" t="s">
         <v>269</v>
       </c>
@@ -20347,7 +20347,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="84">
+    <row r="27" spans="1:8" ht="81">
       <c r="A27" s="29" t="s">
         <v>272</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="84">
+    <row r="28" spans="1:8" ht="81">
       <c r="A28" s="29" t="s">
         <v>275</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="84">
+    <row r="29" spans="1:8" ht="81">
       <c r="A29" s="29" t="s">
         <v>278</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="84">
+    <row r="30" spans="1:8" ht="81">
       <c r="A30" s="29" t="s">
         <v>280</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="84">
+    <row r="31" spans="1:8" ht="81">
       <c r="A31" s="29" t="s">
         <v>282</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="84">
+    <row r="32" spans="1:8" ht="81">
       <c r="A32" s="29" t="s">
         <v>285</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="84">
+    <row r="33" spans="1:8" ht="81">
       <c r="A33" s="29" t="s">
         <v>287</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="84">
+    <row r="34" spans="1:8" ht="81">
       <c r="A34" s="29" t="s">
         <v>290</v>
       </c>
@@ -20535,7 +20535,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="84">
+    <row r="35" spans="1:8" ht="81">
       <c r="A35" s="29" t="s">
         <v>291</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="84">
+    <row r="36" spans="1:8" ht="81">
       <c r="A36" s="29" t="s">
         <v>294</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="84">
+    <row r="37" spans="1:8" ht="81">
       <c r="A37" s="29" t="s">
         <v>297</v>
       </c>
@@ -20623,13 +20623,13 @@
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="48.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20658,7 +20658,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="28" t="s">
         <v>299</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="28" t="s">
         <v>302</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42">
+    <row r="4" spans="1:8" ht="42.75">
       <c r="A4" s="28" t="s">
         <v>305</v>
       </c>
@@ -20730,7 +20730,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="28" t="s">
         <v>308</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42">
+    <row r="6" spans="1:8" ht="42.75">
       <c r="A6" s="28" t="s">
         <v>311</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28">
+    <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="28" t="s">
         <v>1345</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="28" t="s">
         <v>315</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28">
+    <row r="9" spans="1:8" ht="28.5">
       <c r="A9" s="28" t="s">
         <v>1346</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="42">
+    <row r="10" spans="1:8" ht="42.75">
       <c r="A10" s="28" t="s">
         <v>1347</v>
       </c>
@@ -20892,13 +20892,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="25.58203125" customWidth="1"/>
-    <col min="4" max="4" width="38.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20927,7 +20927,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26">
+    <row r="2" spans="1:8" ht="48">
       <c r="A2" s="33" t="s">
         <v>322</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="52">
+    <row r="3" spans="1:8" ht="48">
       <c r="A3" s="33" t="s">
         <v>324</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="52">
+    <row r="4" spans="1:8" ht="48">
       <c r="A4" s="33" t="s">
         <v>326</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="52">
+    <row r="5" spans="1:8" ht="60">
       <c r="A5" s="33" t="s">
         <v>328</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="52">
+    <row r="6" spans="1:8" ht="48">
       <c r="A6" s="33" t="s">
         <v>331</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="52">
+    <row r="7" spans="1:8" ht="48">
       <c r="A7" s="33" t="s">
         <v>333</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="52">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="33" t="s">
         <v>335</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="52">
+    <row r="9" spans="1:8" ht="60">
       <c r="A9" s="33" t="s">
         <v>337</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52">
+    <row r="10" spans="1:8" ht="48">
       <c r="A10" s="33" t="s">
         <v>339</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="52">
+    <row r="11" spans="1:8" ht="48">
       <c r="A11" s="33" t="s">
         <v>341</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="52">
+    <row r="12" spans="1:8" ht="48">
       <c r="A12" s="33" t="s">
         <v>343</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="52">
+    <row r="13" spans="1:8" ht="60">
       <c r="A13" s="33" t="s">
         <v>345</v>
       </c>

--- a/Euclid_work/Quant_Share/dev_files/jointquant_factor.xlsx
+++ b/Euclid_work/Quant_Share/dev_files/jointquant_factor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="7005" tabRatio="841" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="7005" tabRatio="841"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="风格因子" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$249</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="1368">
   <si>
     <t>因子 code</t>
   </si>
@@ -5628,11 +5628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A219" sqref="A219:XFD219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12846,9 +12846,42 @@
       </c>
       <c r="Q218" s="20"/>
     </row>
-    <row r="220" spans="1:17" s="21" customFormat="1" ht="71.25">
+    <row r="219" spans="1:17" s="21" customFormat="1" ht="71.25">
+      <c r="A219" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B219" s="20">
+        <v>2</v>
+      </c>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20">
+        <v>1</v>
+      </c>
+      <c r="E219" s="20">
+        <v>3</v>
+      </c>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20" t="s">
+        <v>861</v>
+      </c>
+      <c r="J219" s="20"/>
+      <c r="K219" s="20"/>
+      <c r="L219" s="20"/>
+      <c r="M219" s="20"/>
+      <c r="N219" s="20"/>
+      <c r="O219" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P219" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q219" s="20"/>
+    </row>
+    <row r="220" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A220" s="20" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="B220" s="20">
         <v>2</v>
@@ -12861,10 +12894,12 @@
         <v>3</v>
       </c>
       <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
+      <c r="G220" s="20" t="s">
+        <v>849</v>
+      </c>
       <c r="H220" s="20"/>
       <c r="I220" s="20" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="J220" s="20"/>
       <c r="K220" s="20"/>
@@ -12875,13 +12910,13 @@
         <v>1074</v>
       </c>
       <c r="P220" s="20" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="Q220" s="20"/>
     </row>
-    <row r="221" spans="1:17" s="21" customFormat="1" ht="42.75">
+    <row r="221" spans="1:17" s="21" customFormat="1">
       <c r="A221" s="20" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B221" s="20">
         <v>2</v>
@@ -12895,12 +12930,12 @@
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="H221" s="20"/>
-      <c r="I221" s="20" t="s">
-        <v>850</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="H221" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="I221" s="20"/>
       <c r="J221" s="20"/>
       <c r="K221" s="20"/>
       <c r="L221" s="20"/>
@@ -12910,13 +12945,13 @@
         <v>1074</v>
       </c>
       <c r="P221" s="20" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="Q221" s="20"/>
     </row>
-    <row r="222" spans="1:17" s="21" customFormat="1">
+    <row r="222" spans="1:17" s="21" customFormat="1" ht="156.75">
       <c r="A222" s="20" t="s">
-        <v>1050</v>
+        <v>1082</v>
       </c>
       <c r="B222" s="20">
         <v>2</v>
@@ -12929,13 +12964,13 @@
         <v>3</v>
       </c>
       <c r="F222" s="20"/>
-      <c r="G222" s="20" t="s">
-        <v>847</v>
-      </c>
+      <c r="G222" s="20"/>
       <c r="H222" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="I222" s="20"/>
+        <v>752</v>
+      </c>
+      <c r="I222" s="20" t="s">
+        <v>751</v>
+      </c>
       <c r="J222" s="20"/>
       <c r="K222" s="20"/>
       <c r="L222" s="20"/>
@@ -12945,13 +12980,12 @@
         <v>1074</v>
       </c>
       <c r="P222" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="Q222" s="20"/>
-    </row>
-    <row r="223" spans="1:17" s="21" customFormat="1" ht="156.75">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" s="21" customFormat="1" ht="42.75">
       <c r="A223" s="20" t="s">
-        <v>1082</v>
+        <v>1051</v>
       </c>
       <c r="B223" s="20">
         <v>2</v>
@@ -12964,12 +12998,12 @@
         <v>3</v>
       </c>
       <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
-      <c r="H223" s="20" t="s">
-        <v>752</v>
-      </c>
+      <c r="G223" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="H223" s="20"/>
       <c r="I223" s="20" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="J223" s="20"/>
       <c r="K223" s="20"/>
@@ -12980,12 +13014,13 @@
         <v>1074</v>
       </c>
       <c r="P223" s="20" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" s="21" customFormat="1" ht="42.75">
+        <v>834</v>
+      </c>
+      <c r="Q223" s="20"/>
+    </row>
+    <row r="224" spans="1:17" s="21" customFormat="1">
       <c r="A224" s="20" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B224" s="20">
         <v>2</v>
@@ -12999,12 +13034,12 @@
       </c>
       <c r="F224" s="20"/>
       <c r="G224" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="H224" s="20"/>
-      <c r="I224" s="20" t="s">
-        <v>771</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="H224" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="I224" s="20"/>
       <c r="J224" s="20"/>
       <c r="K224" s="20"/>
       <c r="L224" s="20"/>
@@ -13014,13 +13049,13 @@
         <v>1074</v>
       </c>
       <c r="P224" s="20" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="Q224" s="20"/>
     </row>
-    <row r="225" spans="1:17" s="21" customFormat="1">
+    <row r="225" spans="1:17" s="21" customFormat="1" ht="57">
       <c r="A225" s="20" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B225" s="20">
         <v>2</v>
@@ -13034,11 +13069,9 @@
       </c>
       <c r="F225" s="20"/>
       <c r="G225" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="H225" s="20" t="s">
-        <v>747</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="H225" s="20"/>
       <c r="I225" s="20"/>
       <c r="J225" s="20"/>
       <c r="K225" s="20"/>
@@ -13049,13 +13082,13 @@
         <v>1074</v>
       </c>
       <c r="P225" s="20" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="Q225" s="20"/>
     </row>
-    <row r="226" spans="1:17" s="21" customFormat="1" ht="57">
+    <row r="226" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A226" s="20" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B226" s="20">
         <v>2</v>
@@ -13068,11 +13101,11 @@
         <v>3</v>
       </c>
       <c r="F226" s="20"/>
-      <c r="G226" s="20" t="s">
-        <v>822</v>
-      </c>
+      <c r="G226" s="20"/>
       <c r="H226" s="20"/>
-      <c r="I226" s="20"/>
+      <c r="I226" s="20" t="s">
+        <v>931</v>
+      </c>
       <c r="J226" s="20"/>
       <c r="K226" s="20"/>
       <c r="L226" s="20"/>
@@ -13082,13 +13115,13 @@
         <v>1074</v>
       </c>
       <c r="P226" s="20" t="s">
-        <v>821</v>
+        <v>950</v>
       </c>
       <c r="Q226" s="20"/>
     </row>
-    <row r="227" spans="1:17" s="21" customFormat="1" ht="28.5">
+    <row r="227" spans="1:17" s="21" customFormat="1" ht="57">
       <c r="A227" s="20" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B227" s="20">
         <v>2</v>
@@ -13101,11 +13134,11 @@
         <v>3</v>
       </c>
       <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
+      <c r="G227" s="20" t="s">
+        <v>775</v>
+      </c>
       <c r="H227" s="20"/>
-      <c r="I227" s="20" t="s">
-        <v>931</v>
-      </c>
+      <c r="I227" s="20"/>
       <c r="J227" s="20"/>
       <c r="K227" s="20"/>
       <c r="L227" s="20"/>
@@ -13115,13 +13148,13 @@
         <v>1074</v>
       </c>
       <c r="P227" s="20" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="Q227" s="20"/>
     </row>
-    <row r="228" spans="1:17" s="21" customFormat="1" ht="57">
+    <row r="228" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A228" s="20" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B228" s="20">
         <v>2</v>
@@ -13134,11 +13167,13 @@
         <v>3</v>
       </c>
       <c r="F228" s="20"/>
-      <c r="G228" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="H228" s="20"/>
-      <c r="I228" s="20"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="I228" s="20" t="s">
+        <v>767</v>
+      </c>
       <c r="J228" s="20"/>
       <c r="K228" s="20"/>
       <c r="L228" s="20"/>
@@ -13148,13 +13183,13 @@
         <v>1074</v>
       </c>
       <c r="P228" s="20" t="s">
-        <v>895</v>
+        <v>770</v>
       </c>
       <c r="Q228" s="20"/>
     </row>
-    <row r="229" spans="1:17" s="21" customFormat="1" ht="28.5">
+    <row r="229" spans="1:17" s="21" customFormat="1">
       <c r="A229" s="20" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B229" s="20">
         <v>2</v>
@@ -13169,11 +13204,9 @@
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
       <c r="H229" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="I229" s="20" t="s">
-        <v>767</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="I229" s="20"/>
       <c r="J229" s="20"/>
       <c r="K229" s="20"/>
       <c r="L229" s="20"/>
@@ -13183,13 +13216,13 @@
         <v>1074</v>
       </c>
       <c r="P229" s="20" t="s">
-        <v>770</v>
+        <v>741</v>
       </c>
       <c r="Q229" s="20"/>
     </row>
-    <row r="230" spans="1:17" s="21" customFormat="1">
+    <row r="230" spans="1:17" s="21" customFormat="1" ht="28.5">
       <c r="A230" s="20" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B230" s="20">
         <v>2</v>
@@ -13204,9 +13237,11 @@
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
       <c r="H230" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="I230" s="20"/>
+        <v>923</v>
+      </c>
+      <c r="I230" s="20" t="s">
+        <v>922</v>
+      </c>
       <c r="J230" s="20"/>
       <c r="K230" s="20"/>
       <c r="L230" s="20"/>
@@ -13216,13 +13251,13 @@
         <v>1074</v>
       </c>
       <c r="P230" s="20" t="s">
-        <v>741</v>
+        <v>958</v>
       </c>
       <c r="Q230" s="20"/>
     </row>
-    <row r="231" spans="1:17" s="21" customFormat="1" ht="28.5">
+    <row r="231" spans="1:17" s="21" customFormat="1">
       <c r="A231" s="20" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B231" s="20">
         <v>2</v>
@@ -13237,11 +13272,9 @@
       <c r="F231" s="20"/>
       <c r="G231" s="20"/>
       <c r="H231" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="I231" s="20" t="s">
-        <v>922</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="I231" s="20"/>
       <c r="J231" s="20"/>
       <c r="K231" s="20"/>
       <c r="L231" s="20"/>
@@ -13251,13 +13284,13 @@
         <v>1074</v>
       </c>
       <c r="P231" s="20" t="s">
-        <v>958</v>
+        <v>748</v>
       </c>
       <c r="Q231" s="20"/>
     </row>
-    <row r="232" spans="1:17" s="21" customFormat="1">
+    <row r="232" spans="1:17" s="21" customFormat="1" ht="99.75">
       <c r="A232" s="20" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B232" s="20">
         <v>2</v>
@@ -13270,10 +13303,10 @@
         <v>3</v>
       </c>
       <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20" t="s">
-        <v>747</v>
-      </c>
+      <c r="G232" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="H232" s="20"/>
       <c r="I232" s="20"/>
       <c r="J232" s="20"/>
       <c r="K232" s="20"/>
@@ -13284,13 +13317,13 @@
         <v>1074</v>
       </c>
       <c r="P232" s="20" t="s">
-        <v>748</v>
+        <v>961</v>
       </c>
       <c r="Q232" s="20"/>
     </row>
     <row r="233" spans="1:17" s="21" customFormat="1" ht="99.75">
       <c r="A233" s="20" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B233" s="20">
         <v>2</v>
@@ -13304,7 +13337,7 @@
       </c>
       <c r="F233" s="20"/>
       <c r="G233" s="20" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H233" s="20"/>
       <c r="I233" s="20"/>
@@ -13317,46 +13350,38 @@
         <v>1074</v>
       </c>
       <c r="P233" s="20" t="s">
-        <v>961</v>
+        <v>907</v>
       </c>
       <c r="Q233" s="20"/>
     </row>
-    <row r="234" spans="1:17" s="21" customFormat="1" ht="99.75">
-      <c r="A234" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B234" s="20">
-        <v>2</v>
-      </c>
+    <row r="234" spans="1:17" s="21" customFormat="1">
+      <c r="A234" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B234" s="20"/>
       <c r="C234" s="20"/>
-      <c r="D234" s="20">
-        <v>1</v>
-      </c>
-      <c r="E234" s="20">
-        <v>3</v>
-      </c>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="20" t="s">
-        <v>764</v>
-      </c>
+      <c r="G234" s="20"/>
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
       <c r="J234" s="20"/>
       <c r="K234" s="20"/>
       <c r="L234" s="20"/>
-      <c r="M234" s="20"/>
+      <c r="M234" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="N234" s="20"/>
       <c r="O234" s="20" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P234" s="20" t="s">
-        <v>907</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="P234" s="20"/>
       <c r="Q234" s="20"/>
     </row>
     <row r="235" spans="1:17" s="21" customFormat="1">
       <c r="A235" s="26" t="s">
-        <v>575</v>
+        <v>1038</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="20"/>
@@ -13381,7 +13406,7 @@
     </row>
     <row r="236" spans="1:17" s="21" customFormat="1">
       <c r="A236" s="26" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="20"/>
@@ -13406,7 +13431,7 @@
     </row>
     <row r="237" spans="1:17" s="21" customFormat="1">
       <c r="A237" s="26" t="s">
-        <v>1070</v>
+        <v>607</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
@@ -13429,34 +13454,42 @@
       <c r="P237" s="20"/>
       <c r="Q237" s="20"/>
     </row>
-    <row r="238" spans="1:17" s="21" customFormat="1">
-      <c r="A238" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="B238" s="20"/>
+    <row r="238" spans="1:17" s="23" customFormat="1">
+      <c r="A238" s="27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B238" s="20">
+        <v>2</v>
+      </c>
       <c r="C238" s="20"/>
-      <c r="D238" s="20"/>
-      <c r="E238" s="20"/>
+      <c r="D238" s="20">
+        <v>1</v>
+      </c>
+      <c r="E238" s="20">
+        <v>3</v>
+      </c>
       <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
-      <c r="H238" s="20"/>
-      <c r="I238" s="20"/>
-      <c r="J238" s="20"/>
-      <c r="K238" s="20"/>
-      <c r="L238" s="20"/>
-      <c r="M238" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="N238" s="20"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="22"/>
+      <c r="I238" s="22"/>
+      <c r="J238" s="22"/>
+      <c r="K238" s="22"/>
+      <c r="L238" s="22"/>
+      <c r="M238" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="N238" s="22"/>
       <c r="O238" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P238" s="20"/>
-      <c r="Q238" s="20"/>
+      <c r="P238" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q238" s="22"/>
     </row>
     <row r="239" spans="1:17" s="23" customFormat="1">
       <c r="A239" s="27" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="B239" s="20">
         <v>2</v>
@@ -13489,7 +13522,7 @@
     </row>
     <row r="240" spans="1:17" s="23" customFormat="1">
       <c r="A240" s="27" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="B240" s="20">
         <v>2</v>
@@ -13520,9 +13553,9 @@
       </c>
       <c r="Q240" s="22"/>
     </row>
-    <row r="241" spans="1:17" s="23" customFormat="1">
+    <row r="241" spans="1:17" s="21" customFormat="1">
       <c r="A241" s="27" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B241" s="20">
         <v>2</v>
@@ -13535,38 +13568,32 @@
         <v>3</v>
       </c>
       <c r="F241" s="20"/>
-      <c r="G241" s="22"/>
-      <c r="H241" s="22"/>
-      <c r="I241" s="22"/>
-      <c r="J241" s="22"/>
-      <c r="K241" s="22"/>
-      <c r="L241" s="22"/>
-      <c r="M241" s="22" t="s">
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="20"/>
+      <c r="K241" s="20"/>
+      <c r="L241" s="20"/>
+      <c r="M241" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="N241" s="22"/>
+      <c r="N241" s="20"/>
       <c r="O241" s="20" t="s">
         <v>1075</v>
       </c>
       <c r="P241" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="Q241" s="22"/>
+      <c r="Q241" s="20"/>
     </row>
     <row r="242" spans="1:17" s="21" customFormat="1">
-      <c r="A242" s="27" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B242" s="20">
-        <v>2</v>
-      </c>
+      <c r="A242" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="B242" s="20"/>
       <c r="C242" s="20"/>
-      <c r="D242" s="20">
-        <v>1</v>
-      </c>
-      <c r="E242" s="20">
-        <v>3</v>
-      </c>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
       <c r="F242" s="20"/>
       <c r="G242" s="20"/>
       <c r="H242" s="20"/>
@@ -13575,35 +13602,33 @@
       <c r="K242" s="20"/>
       <c r="L242" s="20"/>
       <c r="M242" s="20" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
       <c r="N242" s="20"/>
       <c r="O242" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P242" s="20" t="s">
-        <v>548</v>
-      </c>
+      <c r="P242" s="20"/>
       <c r="Q242" s="20"/>
     </row>
     <row r="243" spans="1:17" s="21" customFormat="1">
-      <c r="A243" s="26" t="s">
-        <v>564</v>
+      <c r="A243" s="27" t="s">
+        <v>566</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
+      <c r="G243" s="20" t="s">
+        <v>1096</v>
+      </c>
       <c r="H243" s="20"/>
       <c r="I243" s="20"/>
       <c r="J243" s="20"/>
       <c r="K243" s="20"/>
       <c r="L243" s="20"/>
-      <c r="M243" s="20" t="s">
-        <v>952</v>
-      </c>
+      <c r="M243" s="20"/>
       <c r="N243" s="20"/>
       <c r="O243" s="20" t="s">
         <v>1075</v>
@@ -13611,34 +13636,46 @@
       <c r="P243" s="20"/>
       <c r="Q243" s="20"/>
     </row>
-    <row r="244" spans="1:17" s="21" customFormat="1">
-      <c r="A244" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="B244" s="20"/>
+    <row r="244" spans="1:17" s="21" customFormat="1" ht="142.5">
+      <c r="A244" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B244" s="20">
+        <v>2</v>
+      </c>
       <c r="C244" s="20"/>
-      <c r="D244" s="20"/>
-      <c r="E244" s="20"/>
+      <c r="D244" s="20">
+        <v>1</v>
+      </c>
+      <c r="E244" s="20">
+        <v>3</v>
+      </c>
       <c r="F244" s="20"/>
       <c r="G244" s="20" t="s">
-        <v>1096</v>
+        <v>1036</v>
       </c>
       <c r="H244" s="20"/>
-      <c r="I244" s="20"/>
+      <c r="I244" s="20" t="s">
+        <v>755</v>
+      </c>
       <c r="J244" s="20"/>
       <c r="K244" s="20"/>
-      <c r="L244" s="20"/>
+      <c r="L244" s="20" t="s">
+        <v>1005</v>
+      </c>
       <c r="M244" s="20"/>
       <c r="N244" s="20"/>
       <c r="O244" s="20" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P244" s="20"/>
+        <v>1074</v>
+      </c>
+      <c r="P244" s="20" t="s">
+        <v>1007</v>
+      </c>
       <c r="Q244" s="20"/>
     </row>
-    <row r="245" spans="1:17" s="21" customFormat="1" ht="142.5">
-      <c r="A245" s="26" t="s">
-        <v>1004</v>
+    <row r="245" spans="1:17" s="21" customFormat="1" ht="128.25">
+      <c r="A245" s="20" t="s">
+        <v>908</v>
       </c>
       <c r="B245" s="20">
         <v>2</v>
@@ -13652,12 +13689,10 @@
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="20" t="s">
-        <v>1036</v>
+        <v>765</v>
       </c>
       <c r="H245" s="20"/>
-      <c r="I245" s="20" t="s">
-        <v>755</v>
-      </c>
+      <c r="I245" s="20"/>
       <c r="J245" s="20"/>
       <c r="K245" s="20"/>
       <c r="L245" s="20" t="s">
@@ -13669,13 +13704,13 @@
         <v>1074</v>
       </c>
       <c r="P245" s="20" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="Q245" s="20"/>
     </row>
-    <row r="246" spans="1:17" s="21" customFormat="1" ht="128.25">
+    <row r="246" spans="1:17" s="21" customFormat="1" ht="142.5">
       <c r="A246" s="20" t="s">
-        <v>908</v>
+        <v>1085</v>
       </c>
       <c r="B246" s="20">
         <v>2</v>
@@ -13689,7 +13724,7 @@
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="20" t="s">
-        <v>765</v>
+        <v>1010</v>
       </c>
       <c r="H246" s="20"/>
       <c r="I246" s="20"/>
@@ -13701,67 +13736,57 @@
       <c r="M246" s="20"/>
       <c r="N246" s="20"/>
       <c r="O246" s="20" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="P246" s="20" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="Q246" s="20"/>
     </row>
-    <row r="247" spans="1:17" s="21" customFormat="1" ht="142.5">
-      <c r="A247" s="20" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B247" s="20">
-        <v>2</v>
-      </c>
+    <row r="247" spans="1:17" s="21" customFormat="1" ht="28.5">
+      <c r="A247" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="B247" s="20"/>
       <c r="C247" s="20"/>
-      <c r="D247" s="20">
-        <v>1</v>
-      </c>
-      <c r="E247" s="20">
-        <v>3</v>
-      </c>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="20" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H247" s="20"/>
-      <c r="I247" s="20"/>
-      <c r="J247" s="20"/>
-      <c r="K247" s="20"/>
-      <c r="L247" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M247" s="20"/>
-      <c r="N247" s="20"/>
+      <c r="N247" s="21" t="s">
+        <v>1065</v>
+      </c>
       <c r="O247" s="20" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P247" s="20" t="s">
-        <v>1009</v>
-      </c>
-      <c r="Q247" s="20"/>
-    </row>
-    <row r="248" spans="1:17" s="21" customFormat="1" ht="28.5">
-      <c r="A248" s="26" t="s">
-        <v>608</v>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" s="21" customFormat="1">
+      <c r="A248" s="20" t="s">
+        <v>1066</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
+      <c r="G248" s="25"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
       <c r="N248" s="21" t="s">
         <v>1065</v>
       </c>
       <c r="O248" s="20" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" s="21" customFormat="1">
+      <c r="P248" s="20"/>
+      <c r="Q248" s="20"/>
+    </row>
+    <row r="249" spans="1:17" ht="28.5">
       <c r="A249" s="20" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20"/>
@@ -13769,41 +13794,110 @@
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
       <c r="G249" s="25"/>
-      <c r="H249" s="20"/>
-      <c r="I249" s="20"/>
-      <c r="J249" s="20"/>
-      <c r="K249" s="20"/>
-      <c r="L249" s="20"/>
-      <c r="M249" s="20"/>
       <c r="N249" s="21" t="s">
         <v>1065</v>
       </c>
       <c r="O249" s="20" t="s">
         <v>1075</v>
       </c>
-      <c r="P249" s="20"/>
-      <c r="Q249" s="20"/>
-    </row>
-    <row r="250" spans="1:17" ht="28.5">
-      <c r="A250" s="20" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B250" s="20"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="20"/>
-      <c r="E250" s="20"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="25"/>
-      <c r="N250" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O250" s="20" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
-      <c r="A251" t="s">
+    </row>
+    <row r="250" spans="1:17">
+      <c r="A250" t="s">
         <v>1344</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" ht="28.5">
+      <c r="A251" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="B251" s="20">
+        <v>2</v>
+      </c>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20">
+        <v>1</v>
+      </c>
+      <c r="E251" s="20">
+        <v>3</v>
+      </c>
+      <c r="F251" s="20"/>
+      <c r="G251" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="J251" s="20"/>
+      <c r="K251" s="20"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="20"/>
+      <c r="N251" s="20"/>
+      <c r="O251" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P251" s="20" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="20"/>
+      <c r="K252" s="20"/>
+      <c r="L252" s="20"/>
+      <c r="M252" s="20"/>
+      <c r="N252" s="20"/>
+      <c r="O252" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P252" s="20" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="A253" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="B253" s="20">
+        <v>2</v>
+      </c>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20">
+        <v>1</v>
+      </c>
+      <c r="E253" s="20">
+        <v>3</v>
+      </c>
+      <c r="F253" s="20"/>
+      <c r="G253" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="H253" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="I253" s="20"/>
+      <c r="J253" s="20"/>
+      <c r="K253" s="20"/>
+      <c r="L253" s="20"/>
+      <c r="M253" s="20"/>
+      <c r="N253" s="20"/>
+      <c r="O253" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P253" s="20" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -15478,6 +15572,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A49:A50"/>
@@ -15488,12 +15588,6 @@
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16106,8 +16200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16173,7 +16267,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="28.5">
+    <row r="7" spans="1:18" ht="99.75">
       <c r="A7" s="20" t="s">
         <v>686</v>
       </c>
@@ -16209,7 +16303,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="21" customFormat="1">
+    <row r="8" spans="1:18" s="21" customFormat="1" ht="28.5">
       <c r="A8" s="20" t="s">
         <v>1032</v>
       </c>
@@ -16236,7 +16330,7 @@
       </c>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="1:18" s="21" customFormat="1">
+    <row r="9" spans="1:18" s="21" customFormat="1" ht="57">
       <c r="A9" s="20" t="s">
         <v>1048</v>
       </c>
